--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3795666.94</v>
+        <v>9305123.24</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130885.07</v>
+        <v>202285.29</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191326.37</v>
+        <v>199380.52</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84273.45</v>
+        <v>84403.97</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232987.23</v>
+        <v>232806.43</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>244998.61</v>
+        <v>235183.35</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59144.68</v>
+        <v>59131.74</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>439872.22</v>
+        <v>440084.91</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174946.54</v>
+        <v>175085.27</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243366.97</v>
+        <v>241664.97</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98619.59</v>
+        <v>97433.36</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151867.41</v>
+        <v>138802.49</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280360.72</v>
+        <v>280137.81</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96209.07000000001</v>
+        <v>96307.7</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503860.61</v>
+        <v>503952.53</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66533.67</v>
+        <v>66453.69</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152849.16</v>
+        <v>160135.15</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162204.53</v>
+        <v>165329.73</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61622.52</v>
+        <v>61550.17</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96867.25999999999</v>
+        <v>96914.07000000001</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41957.81</v>
+        <v>41948.51</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30782.95</v>
+        <v>34885.04</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56590.03</v>
+        <v>56536.41</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31714.65</v>
+        <v>26725.27</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83581.16</v>
+        <v>103998.62</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31943.2</v>
+        <v>31957.76</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10790.82</v>
+        <v>10788.39</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87607.57000000001</v>
+        <v>87635.16</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42706.07</v>
+        <v>42723.55</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5905.1</v>
+        <v>5900.42</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,177 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30176.97</v>
+        <v>30158.57</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>211094.02</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>62061.35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>168.93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>558109.29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>390901.59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>21711.28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>23731.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>54968.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>6652.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>703720.48</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>106401.03</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>16823.11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1297007.01</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4557.43</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5900.42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1317395.56</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>715903.4399999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,485 +439,643 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9305123.24</v>
+        <v>103998.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>104034.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202285.29</v>
+        <v>199380.52</v>
+      </c>
+      <c r="C3" t="n">
+        <v>191911.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199380.52</v>
+        <v>31957.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31947.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84403.97</v>
+        <v>56536.41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53609.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232806.43</v>
+        <v>84403.97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>84343.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235183.35</v>
+        <v>232806.43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>232798.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59131.74</v>
+        <v>6652.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6662.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>440084.91</v>
+        <v>703720.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>704406.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175085.27</v>
+        <v>10788.39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10072.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241664.97</v>
+        <v>16823.11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16812.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97433.36</v>
+        <v>235183.35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>208523.69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138802.49</v>
-      </c>
+        <v>59131.74</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280137.81</v>
+        <v>211094.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>213757.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96307.7</v>
+        <v>1297007.01</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1284814.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503952.53</v>
+        <v>440084.91</v>
+      </c>
+      <c r="C16" t="n">
+        <v>439565.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66453.69</v>
+        <v>175085.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>174898.74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160135.15</v>
+        <v>558109.29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>558129.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165329.73</v>
+        <v>390901.59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>390493.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61550.17</v>
+        <v>62061.35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>61968.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96914.07000000001</v>
+        <v>106401.03</v>
+      </c>
+      <c r="C21" t="n">
+        <v>106145.82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41948.51</v>
+        <v>168.93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>168.74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34885.04</v>
+        <v>160135.15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>175952.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56536.41</v>
+        <v>165329.73</v>
+      </c>
+      <c r="C24" t="n">
+        <v>173673.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26725.27</v>
+        <v>241664.97</v>
+      </c>
+      <c r="C25" t="n">
+        <v>215351.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103998.62</v>
+        <v>97433.36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>95490.92999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31957.76</v>
+        <v>87635.16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>87729.00999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>10788.39</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1976674.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87635.16</v>
+        <v>42723.55</v>
+      </c>
+      <c r="C29" t="n">
+        <v>45747.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42723.55</v>
+        <v>4557.43</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4558.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5900.42</v>
+        <v>138802.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>138789.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30158.57</v>
+        <v>280137.81</v>
+      </c>
+      <c r="C32" t="n">
+        <v>275283.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>211094.02</v>
+        <v>34885.04</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32436.65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62061.35</v>
+        <v>5900.42</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8103.05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>168.93</v>
+        <v>5900.42</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8103.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>558109.29</v>
+        <v>21711.28</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21706.76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>390901.59</v>
+        <v>23731.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23745.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21711.28</v>
+        <v>30158.57</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30176.82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23731.7</v>
+        <v>61550.17</v>
+      </c>
+      <c r="C39" t="n">
+        <v>61581.46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54968.34</v>
+        <v>96914.07000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132762.87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6652.7</v>
+        <v>26725.27</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34754.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>703720.48</v>
+        <v>96307.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>96329.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106401.03</v>
+        <v>66453.69</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66545.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16823.11</v>
+        <v>503952.53</v>
+      </c>
+      <c r="C44" t="n">
+        <v>548193.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1297007.01</v>
+        <v>1317395.56</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1317408.94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4557.43</v>
+        <v>715903.4399999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>715172.0600000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5900.42</v>
+        <v>54968.34</v>
+      </c>
+      <c r="C47" t="n">
+        <v>54956.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1317395.56</v>
+        <v>41948.51</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41918.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>715903.4399999999</v>
+        <v>202285.29</v>
+      </c>
+      <c r="C49" t="n">
+        <v>244743.64</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9305123.24</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11258207.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,647 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11321720.08</v>
+        <v>104034.32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>116303.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240887.66</v>
+        <v>191911.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>203468.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104034.32</v>
+        <v>31947.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33986.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191911.68</v>
+        <v>53609.39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53649.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31947.73</v>
+        <v>84343.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>84284.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53609.39</v>
+        <v>232798.17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>232958.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84343.23</v>
+        <v>6662.21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4153.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232798.17</v>
+        <v>704406.59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>701809.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6662.21</v>
+        <v>10072.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10064.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>704406.59</v>
+        <v>16812.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16817.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10072.37</v>
+        <v>208523.69</v>
+      </c>
+      <c r="C12" t="n">
+        <v>176487.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16812.59</v>
+        <v>59095.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>66018.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>208523.69</v>
+        <v>213757.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>213795.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59095.22</v>
+        <v>1284814.59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1272281.84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213757.81</v>
+        <v>12520.43</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12520.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1284814.59</v>
+        <v>439565.08</v>
+      </c>
+      <c r="C17" t="n">
+        <v>440084.49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12520.43</v>
+        <v>174898.74</v>
+      </c>
+      <c r="C18" t="n">
+        <v>175142.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>439565.08</v>
+        <v>61968.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61998.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174898.74</v>
+        <v>168.74</v>
+      </c>
+      <c r="C20" t="n">
+        <v>167.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61968.7</v>
+        <v>558129.01</v>
+      </c>
+      <c r="C21" t="n">
+        <v>557863.1899999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.74</v>
+        <v>390493.53</v>
+      </c>
+      <c r="C22" t="n">
+        <v>390715.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>558129.01</v>
+        <v>106145.82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>106308.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>390493.53</v>
+        <v>175952.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>179588.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106145.82</v>
+        <v>173673.42</v>
+      </c>
+      <c r="C25" t="n">
+        <v>175981.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175952.1</v>
+        <v>215351.45</v>
+      </c>
+      <c r="C26" t="n">
+        <v>232196.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173673.42</v>
+        <v>95490.92999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100237.12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>215351.45</v>
+        <v>87729.00999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>87721.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95490.92999999999</v>
+        <v>1976674.58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1928360.97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87729.00999999999</v>
+        <v>45747.36</v>
+      </c>
+      <c r="C30" t="n">
+        <v>45714.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1976674.58</v>
+        <v>4558.05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4555.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45747.36</v>
+        <v>138789.82</v>
+      </c>
+      <c r="C32" t="n">
+        <v>133733.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4558.05</v>
+        <v>275283.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>265073.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138789.82</v>
+        <v>32436.65</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33943.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>275283.19</v>
+        <v>8103.05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8104.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32436.65</v>
+        <v>21706.76</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21711.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8103.05</v>
+        <v>23745.09</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23704.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21706.76</v>
+        <v>30176.82</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30163.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23745.09</v>
+        <v>61581.46</v>
+      </c>
+      <c r="C39" t="n">
+        <v>61628.97</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30176.82</v>
+        <v>132762.87</v>
+      </c>
+      <c r="C40" t="n">
+        <v>132740.58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>61581.46</v>
+        <v>34754.06</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34785.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132762.87</v>
+        <v>96329.37</v>
+      </c>
+      <c r="C42" t="n">
+        <v>96227.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34754.06</v>
+        <v>66545.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>66517.99000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96329.37</v>
+        <v>548193.05</v>
+      </c>
+      <c r="C44" t="n">
+        <v>560367.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>66545.2</v>
+        <v>1317408.94</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1317359.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>548193.05</v>
+        <v>715172.0600000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>716517.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1317408.94</v>
+        <v>54956.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>55248.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>715172.0600000001</v>
+        <v>41918.65</v>
+      </c>
+      <c r="C48" t="n">
+        <v>38263.48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>54956.5</v>
+        <v>240887.66</v>
+      </c>
+      <c r="C49" t="n">
+        <v>240028.26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>41918.65</v>
+        <v>11321720.08</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11281328.24</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -649,9 +649,7 @@
       <c r="B17" t="n">
         <v>439565.08</v>
       </c>
-      <c r="C17" t="n">
-        <v>440084.49</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +660,7 @@
       <c r="B18" t="n">
         <v>174898.74</v>
       </c>
-      <c r="C18" t="n">
-        <v>175142.86</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +671,7 @@
       <c r="B19" t="n">
         <v>61968.7</v>
       </c>
-      <c r="C19" t="n">
-        <v>61998.59</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +682,7 @@
       <c r="B20" t="n">
         <v>168.74</v>
       </c>
-      <c r="C20" t="n">
-        <v>167.24</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +693,7 @@
       <c r="B21" t="n">
         <v>558129.01</v>
       </c>
-      <c r="C21" t="n">
-        <v>557863.1899999999</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +704,7 @@
       <c r="B22" t="n">
         <v>390493.53</v>
       </c>
-      <c r="C22" t="n">
-        <v>390715.62</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +715,7 @@
       <c r="B23" t="n">
         <v>106145.82</v>
       </c>
-      <c r="C23" t="n">
-        <v>106308.8</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +726,7 @@
       <c r="B24" t="n">
         <v>175952.1</v>
       </c>
-      <c r="C24" t="n">
-        <v>179588.92</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +737,7 @@
       <c r="B25" t="n">
         <v>173673.42</v>
       </c>
-      <c r="C25" t="n">
-        <v>175981.38</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +748,7 @@
       <c r="B26" t="n">
         <v>215351.45</v>
       </c>
-      <c r="C26" t="n">
-        <v>232196.75</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -935,9 +915,7 @@
       <c r="B39" t="n">
         <v>61581.46</v>
       </c>
-      <c r="C39" t="n">
-        <v>61628.97</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1066,7 +1044,7 @@
         <v>240887.66</v>
       </c>
       <c r="C49" t="n">
-        <v>240028.26</v>
+        <v>247212.54</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1057,7 @@
         <v>11321720.08</v>
       </c>
       <c r="C50" t="n">
-        <v>11281328.24</v>
+        <v>8899651.43</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104034.32</v>
+        <v>84967.63</v>
       </c>
       <c r="C2" t="n">
-        <v>116303.33</v>
+        <v>86596.67999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>138856.69</v>
+        <v>85992.16</v>
       </c>
       <c r="E2" t="n">
-        <v>150692.89</v>
+        <v>86464.09</v>
       </c>
       <c r="F2" t="n">
-        <v>150935.15</v>
+        <v>86454.99000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>150755.19</v>
-      </c>
-      <c r="H2" t="n">
-        <v>139432.01</v>
-      </c>
-      <c r="I2" t="n">
-        <v>127377.27</v>
-      </c>
-      <c r="J2" t="n">
-        <v>127424.06</v>
-      </c>
-      <c r="K2" t="n">
-        <v>121085.61</v>
-      </c>
-      <c r="L2" t="n">
-        <v>98894.87</v>
-      </c>
-      <c r="M2" t="n">
-        <v>84967.63</v>
+        <v>91484.62</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191911.68</v>
+        <v>209423.09</v>
       </c>
       <c r="C3" t="n">
-        <v>203468.12</v>
+        <v>209423.81</v>
       </c>
       <c r="D3" t="n">
-        <v>203460.9</v>
+        <v>207880.72</v>
       </c>
       <c r="E3" t="n">
-        <v>216322.57</v>
+        <v>209377.18</v>
       </c>
       <c r="F3" t="n">
-        <v>207606.38</v>
+        <v>209459.08</v>
       </c>
       <c r="G3" t="n">
-        <v>208016.82</v>
-      </c>
-      <c r="H3" t="n">
-        <v>196934.34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>196828.29</v>
-      </c>
-      <c r="J3" t="n">
-        <v>196630.74</v>
-      </c>
-      <c r="K3" t="n">
-        <v>204181.38</v>
-      </c>
-      <c r="L3" t="n">
-        <v>195526.11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>209423.09</v>
+        <v>218919.05</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31947.73</v>
+        <v>36436.46</v>
       </c>
       <c r="C4" t="n">
-        <v>33986.48</v>
+        <v>36388.37</v>
       </c>
       <c r="D4" t="n">
-        <v>37937.08</v>
+        <v>36185.47</v>
       </c>
       <c r="E4" t="n">
-        <v>38010.39</v>
+        <v>36410.46</v>
       </c>
       <c r="F4" t="n">
-        <v>37966.13</v>
+        <v>41687.52</v>
       </c>
       <c r="G4" t="n">
-        <v>37878.02</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41389.43</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41448.11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41409.36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41450.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41379.62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36436.46</v>
+        <v>41631.65</v>
       </c>
     </row>
     <row r="5">
@@ -630,35 +546,23 @@
           <t>Adcap Wise</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>234578.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>208922.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>207206.47</v>
+      </c>
       <c r="E5" t="n">
-        <v>86329.19</v>
+        <v>187282.25</v>
       </c>
       <c r="F5" t="n">
-        <v>206241.54</v>
+        <v>205131.39</v>
       </c>
       <c r="G5" t="n">
-        <v>191382.93</v>
-      </c>
-      <c r="H5" t="n">
-        <v>191748.63</v>
-      </c>
-      <c r="I5" t="n">
-        <v>189437.52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>203318.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>216590.63</v>
-      </c>
-      <c r="L5" t="n">
-        <v>246417.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>234578.89</v>
+        <v>179469.78</v>
       </c>
     </row>
     <row r="6">
@@ -668,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53609.39</v>
+        <v>54885.36</v>
       </c>
       <c r="C6" t="n">
-        <v>53649.92</v>
+        <v>54913.54</v>
       </c>
       <c r="D6" t="n">
-        <v>53615.01</v>
+        <v>54482.5</v>
       </c>
       <c r="E6" t="n">
-        <v>54868.94</v>
+        <v>54866.39</v>
       </c>
       <c r="F6" t="n">
-        <v>54828.93</v>
+        <v>54890.82</v>
       </c>
       <c r="G6" t="n">
-        <v>54883.61</v>
-      </c>
-      <c r="H6" t="n">
-        <v>54895.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54873.48</v>
-      </c>
-      <c r="J6" t="n">
-        <v>54894.82</v>
-      </c>
-      <c r="K6" t="n">
-        <v>54919.77</v>
-      </c>
-      <c r="L6" t="n">
-        <v>54877.22</v>
-      </c>
-      <c r="M6" t="n">
-        <v>54885.36</v>
+        <v>54841.59</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84343.23</v>
+        <v>84409.62</v>
       </c>
       <c r="C7" t="n">
-        <v>84284.61</v>
+        <v>84265.92999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>84280.94</v>
+        <v>83728.03</v>
       </c>
       <c r="E7" t="n">
-        <v>84190.60000000001</v>
+        <v>84320.05</v>
       </c>
       <c r="F7" t="n">
-        <v>84266.25999999999</v>
+        <v>84271.34</v>
       </c>
       <c r="G7" t="n">
-        <v>84412.87</v>
-      </c>
-      <c r="H7" t="n">
-        <v>84192.89999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84419.78</v>
-      </c>
-      <c r="J7" t="n">
-        <v>84361.61</v>
-      </c>
-      <c r="K7" t="n">
-        <v>84276.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>84364.88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>84409.62</v>
+        <v>84366.42</v>
       </c>
     </row>
     <row r="8">
@@ -754,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232798.17</v>
+        <v>165672.88</v>
       </c>
       <c r="C8" t="n">
-        <v>232958.18</v>
+        <v>165483.95</v>
       </c>
       <c r="D8" t="n">
-        <v>232694.66</v>
+        <v>164174.13</v>
       </c>
       <c r="E8" t="n">
-        <v>232783.49</v>
+        <v>165606.58</v>
       </c>
       <c r="F8" t="n">
-        <v>232478.79</v>
+        <v>165319.27</v>
       </c>
       <c r="G8" t="n">
-        <v>232725.56</v>
-      </c>
-      <c r="H8" t="n">
-        <v>232987.47</v>
-      </c>
-      <c r="I8" t="n">
-        <v>220707.13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>220750.19</v>
-      </c>
-      <c r="K8" t="n">
-        <v>221044.62</v>
-      </c>
-      <c r="L8" t="n">
-        <v>193541.04</v>
-      </c>
-      <c r="M8" t="n">
-        <v>165672.88</v>
+        <v>165372.79</v>
       </c>
     </row>
     <row r="9">
@@ -797,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6662.21</v>
+        <v>4158.3</v>
       </c>
       <c r="C9" t="n">
-        <v>4153.07</v>
+        <v>4177.87</v>
       </c>
       <c r="D9" t="n">
-        <v>4178.65</v>
+        <v>4119.28</v>
       </c>
       <c r="E9" t="n">
-        <v>4180.88</v>
+        <v>4151.88</v>
       </c>
       <c r="F9" t="n">
-        <v>4154.06</v>
+        <v>4167.66</v>
       </c>
       <c r="G9" t="n">
-        <v>4150.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4177.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4158.73</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4172.09</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4169.92</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4170.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4158.3</v>
+        <v>4164.95</v>
       </c>
     </row>
     <row r="10">
@@ -840,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>704406.59</v>
+        <v>791061.99</v>
       </c>
       <c r="C10" t="n">
-        <v>701809.37</v>
+        <v>747810.99</v>
       </c>
       <c r="D10" t="n">
-        <v>740380.04</v>
+        <v>749103.51</v>
       </c>
       <c r="E10" t="n">
-        <v>703849.01</v>
+        <v>721942.17</v>
       </c>
       <c r="F10" t="n">
-        <v>750499.6899999999</v>
+        <v>708040.05</v>
       </c>
       <c r="G10" t="n">
-        <v>720826.62</v>
-      </c>
-      <c r="H10" t="n">
-        <v>719355.95</v>
-      </c>
-      <c r="I10" t="n">
-        <v>719369.5699999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>738104.54</v>
-      </c>
-      <c r="K10" t="n">
-        <v>766718.53</v>
-      </c>
-      <c r="L10" t="n">
-        <v>808987.73</v>
-      </c>
-      <c r="M10" t="n">
-        <v>791061.99</v>
+        <v>724971.55</v>
       </c>
     </row>
     <row r="11">
@@ -883,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10072.37</v>
+        <v>1198.92</v>
       </c>
       <c r="C11" t="n">
-        <v>10064.37</v>
+        <v>1197.67</v>
       </c>
       <c r="D11" t="n">
-        <v>10079.11</v>
+        <v>1190.05</v>
       </c>
       <c r="E11" t="n">
-        <v>10079.87</v>
+        <v>1199.21</v>
       </c>
       <c r="F11" t="n">
-        <v>10048.91</v>
+        <v>1198.99</v>
       </c>
       <c r="G11" t="n">
-        <v>10048</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10041.26</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10045.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10022</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1198.98</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1198.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1198.92</v>
+        <v>1196.78</v>
       </c>
     </row>
     <row r="12">
@@ -926,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16812.59</v>
+        <v>16819.19</v>
       </c>
       <c r="C12" t="n">
-        <v>16817.52</v>
+        <v>16826.97</v>
       </c>
       <c r="D12" t="n">
-        <v>16814.75</v>
+        <v>16696.75</v>
       </c>
       <c r="E12" t="n">
-        <v>16814.28</v>
+        <v>16808.94</v>
       </c>
       <c r="F12" t="n">
-        <v>16824.25</v>
+        <v>16815.56</v>
       </c>
       <c r="G12" t="n">
-        <v>16818.99</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16821.44</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16826.33</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16821.42</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16808.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>16816.87</v>
-      </c>
-      <c r="M12" t="n">
-        <v>16819.19</v>
+        <v>16811.47</v>
       </c>
     </row>
     <row r="13">
@@ -969,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208523.69</v>
+        <v>194264.12</v>
       </c>
       <c r="C13" t="n">
-        <v>176487.81</v>
+        <v>204281.35</v>
       </c>
       <c r="D13" t="n">
-        <v>159566.2</v>
+        <v>198708.93</v>
       </c>
       <c r="E13" t="n">
-        <v>159509.89</v>
+        <v>187642.83</v>
       </c>
       <c r="F13" t="n">
-        <v>169490.88</v>
+        <v>187368.68</v>
       </c>
       <c r="G13" t="n">
-        <v>179522.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>188336.34</v>
-      </c>
-      <c r="I13" t="n">
-        <v>188431.97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>188347.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>194332.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>194485.12</v>
-      </c>
-      <c r="M13" t="n">
-        <v>194264.12</v>
+        <v>190891.85</v>
       </c>
     </row>
     <row r="14">
@@ -1012,40 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59095.22</v>
+        <v>91005.06</v>
       </c>
       <c r="C14" t="n">
-        <v>66018.27</v>
+        <v>91053.16</v>
       </c>
       <c r="D14" t="n">
-        <v>68472.66</v>
+        <v>90379.11</v>
       </c>
       <c r="E14" t="n">
-        <v>77746.60000000001</v>
+        <v>91050.83</v>
       </c>
       <c r="F14" t="n">
-        <v>87695.03999999999</v>
+        <v>90982.11</v>
       </c>
       <c r="G14" t="n">
-        <v>87716.12</v>
-      </c>
-      <c r="H14" t="n">
-        <v>91015.99000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>90973.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>90971.59</v>
-      </c>
-      <c r="K14" t="n">
-        <v>90976.16</v>
-      </c>
-      <c r="L14" t="n">
-        <v>90979.41</v>
-      </c>
-      <c r="M14" t="n">
-        <v>91005.06</v>
+        <v>91000.42999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1055,40 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>213757.81</v>
+        <v>212457.82</v>
       </c>
       <c r="C15" t="n">
-        <v>213795.36</v>
+        <v>212371.6</v>
       </c>
       <c r="D15" t="n">
-        <v>213735.11</v>
+        <v>211015.92</v>
       </c>
       <c r="E15" t="n">
-        <v>213813.45</v>
+        <v>212494.75</v>
       </c>
       <c r="F15" t="n">
-        <v>213711.99</v>
+        <v>212444.71</v>
       </c>
       <c r="G15" t="n">
-        <v>212476.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>212484.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>212472.22</v>
-      </c>
-      <c r="J15" t="n">
-        <v>212526.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>212465.16</v>
-      </c>
-      <c r="L15" t="n">
-        <v>212510.13</v>
-      </c>
-      <c r="M15" t="n">
-        <v>212457.82</v>
+        <v>212372.14</v>
       </c>
     </row>
     <row r="16">
@@ -1098,40 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1284814.59</v>
+        <v>1187866.49</v>
       </c>
       <c r="C16" t="n">
-        <v>1272281.84</v>
+        <v>1181002.74</v>
       </c>
       <c r="D16" t="n">
-        <v>1269199.99</v>
+        <v>1161494.27</v>
       </c>
       <c r="E16" t="n">
-        <v>1261907.02</v>
+        <v>1157008.03</v>
       </c>
       <c r="F16" t="n">
-        <v>1253639.28</v>
+        <v>1141906.87</v>
       </c>
       <c r="G16" t="n">
-        <v>1242449.71</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1235574.8</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1224203.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1213742.83</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1204732.51</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1201539.52</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1187866.49</v>
+        <v>1129375.48</v>
       </c>
     </row>
     <row r="17">
@@ -1141,40 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12520.43</v>
+        <v>12521.51</v>
       </c>
       <c r="C17" t="n">
-        <v>12520.97</v>
+        <v>12519.81</v>
       </c>
       <c r="D17" t="n">
-        <v>12522.36</v>
+        <v>12428.52</v>
       </c>
       <c r="E17" t="n">
-        <v>12522.45</v>
+        <v>12522.38</v>
       </c>
       <c r="F17" t="n">
-        <v>12523.21</v>
+        <v>12518.93</v>
       </c>
       <c r="G17" t="n">
-        <v>12518.33</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12518.52</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12520.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12521.17</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12523.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12518.05</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12521.51</v>
+        <v>10520.76</v>
       </c>
     </row>
     <row r="18">
@@ -1184,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>439565.08</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>427299.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>427675.86</v>
+      </c>
       <c r="D18" t="n">
-        <v>439678</v>
+        <v>424654.06</v>
       </c>
       <c r="E18" t="n">
-        <v>439705.29</v>
+        <v>427287.66</v>
       </c>
       <c r="F18" t="n">
-        <v>439542.3</v>
+        <v>427491.44</v>
       </c>
       <c r="G18" t="n">
-        <v>439638.65</v>
-      </c>
-      <c r="H18" t="n">
-        <v>439680.78</v>
-      </c>
-      <c r="I18" t="n">
-        <v>439842.91</v>
-      </c>
-      <c r="J18" t="n">
-        <v>427648.52</v>
-      </c>
-      <c r="K18" t="n">
-        <v>427627.66</v>
-      </c>
-      <c r="L18" t="n">
-        <v>427794.37</v>
-      </c>
-      <c r="M18" t="n">
-        <v>427299.7</v>
+        <v>412252.95</v>
       </c>
     </row>
     <row r="19">
@@ -1225,38 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174898.74</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>184982.44</v>
+      </c>
+      <c r="C19" t="n">
+        <v>184842.82</v>
+      </c>
       <c r="D19" t="n">
-        <v>175064.54</v>
+        <v>183505.76</v>
       </c>
       <c r="E19" t="n">
-        <v>174910.21</v>
+        <v>184972.45</v>
       </c>
       <c r="F19" t="n">
-        <v>175067.8</v>
+        <v>184813.07</v>
       </c>
       <c r="G19" t="n">
-        <v>175013.93</v>
-      </c>
-      <c r="H19" t="n">
-        <v>175127.45</v>
-      </c>
-      <c r="I19" t="n">
-        <v>175090.63</v>
-      </c>
-      <c r="J19" t="n">
-        <v>174839.28</v>
-      </c>
-      <c r="K19" t="n">
-        <v>181656.65</v>
-      </c>
-      <c r="L19" t="n">
-        <v>184886.83</v>
-      </c>
-      <c r="M19" t="n">
-        <v>184982.44</v>
+        <v>199926.6</v>
       </c>
     </row>
     <row r="20">
@@ -1266,38 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61968.7</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>58194.27</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58119.16</v>
+      </c>
       <c r="D20" t="n">
-        <v>58139.82</v>
+        <v>57696.9</v>
       </c>
       <c r="E20" t="n">
-        <v>58172.56</v>
+        <v>58146.07</v>
       </c>
       <c r="F20" t="n">
-        <v>58193.13</v>
+        <v>58134.03</v>
       </c>
       <c r="G20" t="n">
-        <v>58128.98</v>
-      </c>
-      <c r="H20" t="n">
-        <v>58181.49</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58127.53</v>
-      </c>
-      <c r="J20" t="n">
-        <v>58148.11</v>
-      </c>
-      <c r="K20" t="n">
-        <v>58187.72</v>
-      </c>
-      <c r="L20" t="n">
-        <v>58161.04</v>
-      </c>
-      <c r="M20" t="n">
-        <v>58194.27</v>
+        <v>68021.27</v>
       </c>
     </row>
     <row r="21">
@@ -1307,38 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.74</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>168.41</v>
+      </c>
+      <c r="C21" t="n">
+        <v>172.34</v>
+      </c>
       <c r="D21" t="n">
-        <v>167.69</v>
+        <v>166.53</v>
       </c>
       <c r="E21" t="n">
-        <v>169.38</v>
+        <v>172.55</v>
       </c>
       <c r="F21" t="n">
-        <v>167.21</v>
+        <v>166.82</v>
       </c>
       <c r="G21" t="n">
-        <v>169.47</v>
-      </c>
-      <c r="H21" t="n">
-        <v>169.33</v>
-      </c>
-      <c r="I21" t="n">
-        <v>173.04</v>
-      </c>
-      <c r="J21" t="n">
-        <v>168.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>168.63</v>
-      </c>
-      <c r="L21" t="n">
-        <v>171.31</v>
-      </c>
-      <c r="M21" t="n">
-        <v>168.41</v>
+        <v>170.12</v>
       </c>
     </row>
     <row r="22">
@@ -1348,38 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558129.01</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>430077.14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>430005.77</v>
+      </c>
       <c r="D22" t="n">
-        <v>523848.18</v>
+        <v>427120.52</v>
       </c>
       <c r="E22" t="n">
-        <v>521541.45</v>
+        <v>430090.47</v>
       </c>
       <c r="F22" t="n">
-        <v>509160.87</v>
+        <v>430242.31</v>
       </c>
       <c r="G22" t="n">
-        <v>496636.01</v>
-      </c>
-      <c r="H22" t="n">
-        <v>496638.72</v>
-      </c>
-      <c r="I22" t="n">
-        <v>496762.32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>476463.88</v>
-      </c>
-      <c r="K22" t="n">
-        <v>468093.21</v>
-      </c>
-      <c r="L22" t="n">
-        <v>430016.52</v>
-      </c>
-      <c r="M22" t="n">
-        <v>430077.14</v>
+        <v>442986.74</v>
       </c>
     </row>
     <row r="23">
@@ -1389,38 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390493.53</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>352469.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>352142.21</v>
+      </c>
       <c r="D23" t="n">
-        <v>372231.98</v>
+        <v>349704.2</v>
       </c>
       <c r="E23" t="n">
-        <v>365106.96</v>
+        <v>352521.65</v>
       </c>
       <c r="F23" t="n">
-        <v>352325.65</v>
+        <v>352260.7</v>
       </c>
       <c r="G23" t="n">
-        <v>352371.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>352494.41</v>
-      </c>
-      <c r="I23" t="n">
-        <v>352548.47</v>
-      </c>
-      <c r="J23" t="n">
-        <v>352684.27</v>
-      </c>
-      <c r="K23" t="n">
-        <v>352618.32</v>
-      </c>
-      <c r="L23" t="n">
-        <v>352072.31</v>
-      </c>
-      <c r="M23" t="n">
-        <v>352469.9</v>
+        <v>372035.73</v>
       </c>
     </row>
     <row r="24">
@@ -1430,38 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106145.82</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>105958.31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>106431.84</v>
+      </c>
       <c r="D24" t="n">
-        <v>106377.8</v>
+        <v>105300.72</v>
       </c>
       <c r="E24" t="n">
-        <v>105901.65</v>
+        <v>106331.37</v>
       </c>
       <c r="F24" t="n">
-        <v>105980.39</v>
+        <v>105959.43</v>
       </c>
       <c r="G24" t="n">
-        <v>105828.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>105997.13</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106403.23</v>
-      </c>
-      <c r="J24" t="n">
-        <v>106048.35</v>
-      </c>
-      <c r="K24" t="n">
-        <v>106239.63</v>
-      </c>
-      <c r="L24" t="n">
-        <v>106305.48</v>
-      </c>
-      <c r="M24" t="n">
-        <v>105958.31</v>
+        <v>114041.93</v>
       </c>
     </row>
     <row r="25">
@@ -1471,38 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175952.1</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>148268.77</v>
+      </c>
+      <c r="C25" t="n">
+        <v>148250.93</v>
+      </c>
       <c r="D25" t="n">
-        <v>167897.03</v>
+        <v>147399.14</v>
       </c>
       <c r="E25" t="n">
-        <v>168737.74</v>
+        <v>148192.75</v>
       </c>
       <c r="F25" t="n">
-        <v>173337.8</v>
+        <v>148492.01</v>
       </c>
       <c r="G25" t="n">
-        <v>170046.94</v>
-      </c>
-      <c r="H25" t="n">
-        <v>169928.24</v>
-      </c>
-      <c r="I25" t="n">
-        <v>161849.39</v>
-      </c>
-      <c r="J25" t="n">
-        <v>159117.06</v>
-      </c>
-      <c r="K25" t="n">
-        <v>152376.46</v>
-      </c>
-      <c r="L25" t="n">
-        <v>148351.64</v>
-      </c>
-      <c r="M25" t="n">
-        <v>148268.77</v>
+        <v>155505.67</v>
       </c>
     </row>
     <row r="26">
@@ -1512,38 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>173673.42</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>140689.51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>140847.98</v>
+      </c>
       <c r="D26" t="n">
-        <v>171684.12</v>
+        <v>139754.09</v>
       </c>
       <c r="E26" t="n">
-        <v>160320.36</v>
+        <v>137286.18</v>
       </c>
       <c r="F26" t="n">
-        <v>159091.01</v>
+        <v>139854.28</v>
       </c>
       <c r="G26" t="n">
-        <v>157683.01</v>
-      </c>
-      <c r="H26" t="n">
-        <v>157518.77</v>
-      </c>
-      <c r="I26" t="n">
-        <v>154043.22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>149243.77</v>
-      </c>
-      <c r="K26" t="n">
-        <v>144357.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>140557.79</v>
-      </c>
-      <c r="M26" t="n">
-        <v>140689.51</v>
+        <v>145967.24</v>
       </c>
     </row>
     <row r="27">
@@ -1553,38 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>215351.45</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>280309.12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>280221.93</v>
+      </c>
       <c r="D27" t="n">
-        <v>199185.43</v>
+        <v>277168.76</v>
       </c>
       <c r="E27" t="n">
-        <v>308615.96</v>
+        <v>299734.97</v>
       </c>
       <c r="F27" t="n">
-        <v>308755.43</v>
+        <v>325270.2</v>
       </c>
       <c r="G27" t="n">
-        <v>310819.31</v>
-      </c>
-      <c r="H27" t="n">
-        <v>311053.9</v>
-      </c>
-      <c r="I27" t="n">
-        <v>309966.34</v>
-      </c>
-      <c r="J27" t="n">
-        <v>301069.07</v>
-      </c>
-      <c r="K27" t="n">
-        <v>298800.56</v>
-      </c>
-      <c r="L27" t="n">
-        <v>286083.95</v>
-      </c>
-      <c r="M27" t="n">
-        <v>280309.12</v>
+        <v>340037.44</v>
       </c>
     </row>
     <row r="28">
@@ -1594,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95490.92999999999</v>
+        <v>107224.37</v>
       </c>
       <c r="C28" t="n">
-        <v>100237.12</v>
+        <v>105393.02</v>
       </c>
       <c r="D28" t="n">
-        <v>103219.71</v>
+        <v>104712.95</v>
       </c>
       <c r="E28" t="n">
-        <v>106095.99</v>
+        <v>100366.27</v>
       </c>
       <c r="F28" t="n">
-        <v>107280.25</v>
+        <v>100253.05</v>
       </c>
       <c r="G28" t="n">
-        <v>107366.52</v>
-      </c>
-      <c r="H28" t="n">
-        <v>107231.02</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107373.18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>107308.36</v>
-      </c>
-      <c r="K28" t="n">
-        <v>107141.03</v>
-      </c>
-      <c r="L28" t="n">
-        <v>107131.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>107224.37</v>
+        <v>98423.75999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1637,40 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87729.00999999999</v>
+        <v>101451.77</v>
       </c>
       <c r="C29" t="n">
-        <v>87721.81</v>
+        <v>101470.48</v>
       </c>
       <c r="D29" t="n">
-        <v>62722.62</v>
+        <v>100776.39</v>
       </c>
       <c r="E29" t="n">
-        <v>62643.17</v>
+        <v>101529.87</v>
       </c>
       <c r="F29" t="n">
-        <v>62721.62</v>
+        <v>101549.31</v>
       </c>
       <c r="G29" t="n">
-        <v>62636.29</v>
-      </c>
-      <c r="H29" t="n">
-        <v>101492.09</v>
-      </c>
-      <c r="I29" t="n">
-        <v>101534.83</v>
-      </c>
-      <c r="J29" t="n">
-        <v>101430.15</v>
-      </c>
-      <c r="K29" t="n">
-        <v>101558.86</v>
-      </c>
-      <c r="L29" t="n">
-        <v>101524.62</v>
-      </c>
-      <c r="M29" t="n">
-        <v>101451.77</v>
+        <v>101485.2</v>
       </c>
     </row>
     <row r="30">
@@ -1680,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1976674.58</v>
+        <v>2000367.93</v>
       </c>
       <c r="C30" t="n">
-        <v>1928360.97</v>
+        <v>2000360.74</v>
       </c>
       <c r="D30" t="n">
-        <v>1927707.25</v>
+        <v>1985306.17</v>
       </c>
       <c r="E30" t="n">
-        <v>1927326.51</v>
+        <v>2000737.27</v>
       </c>
       <c r="F30" t="n">
-        <v>1927886.93</v>
+        <v>1799967.29</v>
       </c>
       <c r="G30" t="n">
-        <v>1927788.31</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1928825.94</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1928677.74</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2000787.42</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2000058.94</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1999489.08</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2000367.93</v>
+        <v>1799804.16</v>
       </c>
     </row>
     <row r="31">
@@ -1723,40 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45747.36</v>
+        <v>31211.29</v>
       </c>
       <c r="C31" t="n">
-        <v>45714.74</v>
+        <v>31209.59</v>
       </c>
       <c r="D31" t="n">
-        <v>35730.41</v>
+        <v>31004.09</v>
       </c>
       <c r="E31" t="n">
-        <v>35726.19</v>
+        <v>31214.28</v>
       </c>
       <c r="F31" t="n">
-        <v>35730.85</v>
+        <v>31213.15</v>
       </c>
       <c r="G31" t="n">
-        <v>35695.19</v>
-      </c>
-      <c r="H31" t="n">
-        <v>35706.66</v>
-      </c>
-      <c r="I31" t="n">
-        <v>35759.11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>35741.39</v>
-      </c>
-      <c r="K31" t="n">
-        <v>35722.53</v>
-      </c>
-      <c r="L31" t="n">
-        <v>35728.72</v>
-      </c>
-      <c r="M31" t="n">
-        <v>31211.29</v>
+        <v>31231.55</v>
       </c>
     </row>
     <row r="32">
@@ -1766,40 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4558.05</v>
+        <v>4556.82</v>
       </c>
       <c r="C32" t="n">
-        <v>4555.44</v>
+        <v>4553.38</v>
       </c>
       <c r="D32" t="n">
-        <v>4554.66</v>
+        <v>4521.17</v>
       </c>
       <c r="E32" t="n">
-        <v>4557.09</v>
+        <v>4551.65</v>
       </c>
       <c r="F32" t="n">
-        <v>4546.79</v>
+        <v>4551.52</v>
       </c>
       <c r="G32" t="n">
-        <v>4546.98</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4553.61</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4558.31</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4553.65</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4554.73</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4557.14</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4556.82</v>
+        <v>4550.67</v>
       </c>
     </row>
     <row r="33">
@@ -1809,40 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138789.82</v>
+        <v>102807.14</v>
       </c>
       <c r="C33" t="n">
-        <v>133733.32</v>
+        <v>98784.37</v>
       </c>
       <c r="D33" t="n">
-        <v>128764.11</v>
+        <v>98062.7</v>
       </c>
       <c r="E33" t="n">
-        <v>123770.34</v>
+        <v>98751.99000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>118743.71</v>
+        <v>98727.71000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>125766.47</v>
-      </c>
-      <c r="H33" t="n">
-        <v>128885.75</v>
-      </c>
-      <c r="I33" t="n">
-        <v>118752.95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>113754.89</v>
-      </c>
-      <c r="K33" t="n">
-        <v>108745.65</v>
-      </c>
-      <c r="L33" t="n">
-        <v>102739.39</v>
-      </c>
-      <c r="M33" t="n">
-        <v>102807.14</v>
+        <v>93831.55</v>
       </c>
     </row>
     <row r="34">
@@ -1852,40 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>275283.19</v>
+        <v>192911.9</v>
       </c>
       <c r="C34" t="n">
-        <v>265073.7</v>
+        <v>192636.66</v>
       </c>
       <c r="D34" t="n">
-        <v>225396.48</v>
+        <v>191232.72</v>
       </c>
       <c r="E34" t="n">
-        <v>220224.98</v>
+        <v>192797.08</v>
       </c>
       <c r="F34" t="n">
-        <v>220368.55</v>
+        <v>192807.26</v>
       </c>
       <c r="G34" t="n">
-        <v>225203.37</v>
-      </c>
-      <c r="H34" t="n">
-        <v>225086.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>215352.48</v>
-      </c>
-      <c r="J34" t="n">
-        <v>215432.52</v>
-      </c>
-      <c r="K34" t="n">
-        <v>208122.04</v>
-      </c>
-      <c r="L34" t="n">
-        <v>192818.77</v>
-      </c>
-      <c r="M34" t="n">
-        <v>192911.9</v>
+        <v>200696.2</v>
       </c>
     </row>
     <row r="35">
@@ -1895,40 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32436.65</v>
+        <v>47035.15</v>
       </c>
       <c r="C35" t="n">
-        <v>33943.21</v>
+        <v>47033.26</v>
       </c>
       <c r="D35" t="n">
-        <v>43659.5</v>
+        <v>45413.28</v>
       </c>
       <c r="E35" t="n">
-        <v>45674.62</v>
+        <v>45302.22</v>
       </c>
       <c r="F35" t="n">
-        <v>45256.54</v>
+        <v>46027.86</v>
       </c>
       <c r="G35" t="n">
-        <v>45285.52</v>
-      </c>
-      <c r="H35" t="n">
-        <v>53728.33</v>
-      </c>
-      <c r="I35" t="n">
-        <v>53769.44</v>
-      </c>
-      <c r="J35" t="n">
-        <v>53791.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>53750.74</v>
-      </c>
-      <c r="L35" t="n">
-        <v>53428.12</v>
-      </c>
-      <c r="M35" t="n">
-        <v>47035.15</v>
+        <v>48886.03</v>
       </c>
     </row>
     <row r="36">
@@ -1938,40 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8103.05</v>
+        <v>9326.950000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>8104.65</v>
+        <v>8469.41</v>
       </c>
       <c r="D36" t="n">
-        <v>9325.459999999999</v>
+        <v>8410.68</v>
       </c>
       <c r="E36" t="n">
-        <v>9326.92</v>
+        <v>8471.17</v>
       </c>
       <c r="F36" t="n">
-        <v>9321.530000000001</v>
+        <v>8462.690000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>9321.879999999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9317.59</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9319.24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9321.209999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9327.35</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9317.48</v>
-      </c>
-      <c r="M36" t="n">
-        <v>9326.950000000001</v>
+        <v>8470.559999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1981,40 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21706.76</v>
+        <v>32489.35</v>
       </c>
       <c r="C37" t="n">
-        <v>21711.31</v>
+        <v>30514.68</v>
       </c>
       <c r="D37" t="n">
-        <v>21656.68</v>
+        <v>30295.91</v>
       </c>
       <c r="E37" t="n">
-        <v>24969.49</v>
+        <v>32541.56</v>
       </c>
       <c r="F37" t="n">
-        <v>25035.27</v>
+        <v>33464.33</v>
       </c>
       <c r="G37" t="n">
-        <v>29033.67</v>
-      </c>
-      <c r="H37" t="n">
-        <v>28953.3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33985.81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>37513.84</v>
-      </c>
-      <c r="K37" t="n">
-        <v>34010.88</v>
-      </c>
-      <c r="L37" t="n">
-        <v>32467.98</v>
-      </c>
-      <c r="M37" t="n">
-        <v>32489.35</v>
+        <v>35745.62</v>
       </c>
     </row>
     <row r="38">
@@ -2024,40 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23745.09</v>
+        <v>40692.87</v>
       </c>
       <c r="C38" t="n">
-        <v>23704.47</v>
+        <v>40717.52</v>
       </c>
       <c r="D38" t="n">
-        <v>23747.8</v>
+        <v>40405.87</v>
       </c>
       <c r="E38" t="n">
-        <v>40728.91</v>
+        <v>40749.26</v>
       </c>
       <c r="F38" t="n">
-        <v>40710.44</v>
+        <v>40750.41</v>
       </c>
       <c r="G38" t="n">
-        <v>40734.01</v>
-      </c>
-      <c r="H38" t="n">
-        <v>40697</v>
-      </c>
-      <c r="I38" t="n">
-        <v>40747.59</v>
-      </c>
-      <c r="J38" t="n">
-        <v>40717.54</v>
-      </c>
-      <c r="K38" t="n">
-        <v>40699.43</v>
-      </c>
-      <c r="L38" t="n">
-        <v>40748.71</v>
-      </c>
-      <c r="M38" t="n">
-        <v>40692.87</v>
+        <v>40688.48</v>
       </c>
     </row>
     <row r="39">
@@ -2067,40 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30176.82</v>
+        <v>24969.62</v>
       </c>
       <c r="C39" t="n">
-        <v>30163.52</v>
+        <v>24989.24</v>
       </c>
       <c r="D39" t="n">
-        <v>21802.78</v>
+        <v>24793.82</v>
       </c>
       <c r="E39" t="n">
-        <v>24993.69</v>
+        <v>31773.87</v>
       </c>
       <c r="F39" t="n">
-        <v>24997.19</v>
+        <v>31799.97</v>
       </c>
       <c r="G39" t="n">
-        <v>24968.27</v>
-      </c>
-      <c r="H39" t="n">
-        <v>25002.29</v>
-      </c>
-      <c r="I39" t="n">
-        <v>24973.08</v>
-      </c>
-      <c r="J39" t="n">
-        <v>24996.93</v>
-      </c>
-      <c r="K39" t="n">
-        <v>24974</v>
-      </c>
-      <c r="L39" t="n">
-        <v>24972.35</v>
-      </c>
-      <c r="M39" t="n">
-        <v>24969.62</v>
+        <v>34891.13</v>
       </c>
     </row>
     <row r="40">
@@ -2110,38 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61581.46</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>69618.17</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69487.23</v>
+      </c>
       <c r="D40" t="n">
-        <v>61608.13</v>
+        <v>69055.14999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>61591.51</v>
+        <v>69532.28</v>
       </c>
       <c r="F40" t="n">
-        <v>61586.06</v>
+        <v>69604.86</v>
       </c>
       <c r="G40" t="n">
-        <v>69618.32000000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>69529.59</v>
-      </c>
-      <c r="I40" t="n">
-        <v>69607.89</v>
-      </c>
-      <c r="J40" t="n">
-        <v>69551.28999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>69491.53</v>
-      </c>
-      <c r="L40" t="n">
-        <v>69660.37</v>
-      </c>
-      <c r="M40" t="n">
-        <v>69618.17</v>
+        <v>69530.06</v>
       </c>
     </row>
     <row r="41">
@@ -2151,40 +1447,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132762.87</v>
+        <v>119396.72</v>
       </c>
       <c r="C41" t="n">
-        <v>132740.58</v>
+        <v>119329.01</v>
       </c>
       <c r="D41" t="n">
-        <v>132695.81</v>
+        <v>118507.75</v>
       </c>
       <c r="E41" t="n">
-        <v>132957.68</v>
+        <v>119564.62</v>
       </c>
       <c r="F41" t="n">
-        <v>132938.59</v>
+        <v>119453.19</v>
       </c>
       <c r="G41" t="n">
-        <v>132915.02</v>
-      </c>
-      <c r="H41" t="n">
-        <v>132804</v>
-      </c>
-      <c r="I41" t="n">
-        <v>132756.39</v>
-      </c>
-      <c r="J41" t="n">
-        <v>132873.62</v>
-      </c>
-      <c r="K41" t="n">
-        <v>132665.54</v>
-      </c>
-      <c r="L41" t="n">
-        <v>119553.86</v>
-      </c>
-      <c r="M41" t="n">
-        <v>119396.72</v>
+        <v>119470.09</v>
       </c>
     </row>
     <row r="42">
@@ -2194,40 +1472,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34754.06</v>
+        <v>46067.63</v>
       </c>
       <c r="C42" t="n">
-        <v>34785.32</v>
+        <v>54055.89</v>
       </c>
       <c r="D42" t="n">
-        <v>34697.72</v>
+        <v>53614.41</v>
       </c>
       <c r="E42" t="n">
-        <v>34737.25</v>
+        <v>54020.06</v>
       </c>
       <c r="F42" t="n">
-        <v>34786.72</v>
+        <v>54032.28</v>
       </c>
       <c r="G42" t="n">
-        <v>34726.67</v>
-      </c>
-      <c r="H42" t="n">
-        <v>44796.8</v>
-      </c>
-      <c r="I42" t="n">
-        <v>44784.97</v>
-      </c>
-      <c r="J42" t="n">
-        <v>44782.36</v>
-      </c>
-      <c r="K42" t="n">
-        <v>42003.29</v>
-      </c>
-      <c r="L42" t="n">
-        <v>46070.29</v>
-      </c>
-      <c r="M42" t="n">
-        <v>46067.63</v>
+        <v>62103.49</v>
       </c>
     </row>
     <row r="43">
@@ -2237,40 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96329.37</v>
+        <v>96341.89999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>96227.52</v>
+        <v>96331.58</v>
       </c>
       <c r="D43" t="n">
-        <v>96150.28</v>
+        <v>95512.12</v>
       </c>
       <c r="E43" t="n">
-        <v>96327.45</v>
+        <v>119871.03</v>
       </c>
       <c r="F43" t="n">
-        <v>96174.06</v>
+        <v>119747.91</v>
       </c>
       <c r="G43" t="n">
-        <v>96284.45</v>
-      </c>
-      <c r="H43" t="n">
-        <v>96267.00999999999</v>
-      </c>
-      <c r="I43" t="n">
-        <v>96198.17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>96306.71000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>96194.56</v>
-      </c>
-      <c r="L43" t="n">
-        <v>96177.67999999999</v>
-      </c>
-      <c r="M43" t="n">
-        <v>96341.89999999999</v>
+        <v>130851.41</v>
       </c>
     </row>
     <row r="44">
@@ -2280,40 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>66545.2</v>
+        <v>65355.48</v>
       </c>
       <c r="C44" t="n">
-        <v>66517.99000000001</v>
+        <v>61921.64</v>
       </c>
       <c r="D44" t="n">
-        <v>62656.78</v>
+        <v>61468.63</v>
       </c>
       <c r="E44" t="n">
-        <v>61509.05</v>
+        <v>62566.8</v>
       </c>
       <c r="F44" t="n">
-        <v>66320.41</v>
+        <v>61817.56</v>
       </c>
       <c r="G44" t="n">
-        <v>67068.96000000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>67245.98</v>
-      </c>
-      <c r="I44" t="n">
-        <v>67250.89</v>
-      </c>
-      <c r="J44" t="n">
-        <v>67246.27</v>
-      </c>
-      <c r="K44" t="n">
-        <v>67197.84</v>
-      </c>
-      <c r="L44" t="n">
-        <v>67248.10000000001</v>
-      </c>
-      <c r="M44" t="n">
-        <v>65355.48</v>
+        <v>67279.08</v>
       </c>
     </row>
     <row r="45">
@@ -2323,40 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>548193.05</v>
+        <v>588739.62</v>
       </c>
       <c r="C45" t="n">
-        <v>560367.16</v>
+        <v>589151.98</v>
       </c>
       <c r="D45" t="n">
-        <v>572931.5699999999</v>
+        <v>584616.77</v>
       </c>
       <c r="E45" t="n">
-        <v>621141.78</v>
+        <v>633052.65</v>
       </c>
       <c r="F45" t="n">
-        <v>620842.34</v>
+        <v>656535.58</v>
       </c>
       <c r="G45" t="n">
-        <v>620921.27</v>
-      </c>
-      <c r="H45" t="n">
-        <v>606678.62</v>
-      </c>
-      <c r="I45" t="n">
-        <v>606566.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>607039.34</v>
-      </c>
-      <c r="K45" t="n">
-        <v>606653.52</v>
-      </c>
-      <c r="L45" t="n">
-        <v>588815.9399999999</v>
-      </c>
-      <c r="M45" t="n">
-        <v>588739.62</v>
+        <v>656378.36</v>
       </c>
     </row>
     <row r="46">
@@ -2366,237 +1572,122 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1317408.94</v>
+        <v>1263393.9</v>
       </c>
       <c r="C46" t="n">
-        <v>1317359.35</v>
+        <v>1263234.84</v>
       </c>
       <c r="D46" t="n">
-        <v>1317336.23</v>
+        <v>1254889.24</v>
       </c>
       <c r="E46" t="n">
-        <v>1317734.58</v>
+        <v>1263881.04</v>
       </c>
       <c r="F46" t="n">
-        <v>1317579.31</v>
+        <v>1263327.82</v>
       </c>
       <c r="G46" t="n">
-        <v>1308596.16</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1294205.99</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1277205.13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1263861.86</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1263367.97</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1264019.31</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1263393.9</v>
+        <v>1263780.82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>715172.0600000001</v>
+        <v>55427.65</v>
       </c>
       <c r="C47" t="n">
-        <v>716517.87</v>
+        <v>55480.38</v>
       </c>
       <c r="D47" t="n">
-        <v>767218.66</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+        <v>55085.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>54993.48</v>
+      </c>
+      <c r="F47" t="n">
+        <v>97808.13</v>
+      </c>
+      <c r="G47" t="n">
+        <v>97701.39999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>54956.5</v>
+        <v>38294.21</v>
       </c>
       <c r="C48" t="n">
-        <v>55248.68</v>
+        <v>38287.52</v>
       </c>
       <c r="D48" t="n">
-        <v>55593.54</v>
+        <v>38016.09</v>
       </c>
       <c r="E48" t="n">
-        <v>54306.86</v>
+        <v>38296.91</v>
       </c>
       <c r="F48" t="n">
-        <v>55410.8</v>
+        <v>38283.08</v>
       </c>
       <c r="G48" t="n">
-        <v>54823.01</v>
-      </c>
-      <c r="H48" t="n">
-        <v>55166.05</v>
-      </c>
-      <c r="I48" t="n">
-        <v>55083.68</v>
-      </c>
-      <c r="J48" t="n">
-        <v>54949.44</v>
-      </c>
-      <c r="K48" t="n">
-        <v>55298.79</v>
-      </c>
-      <c r="L48" t="n">
-        <v>54930.92</v>
-      </c>
-      <c r="M48" t="n">
-        <v>55427.65</v>
+        <v>42323.51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>41918.65</v>
+        <v>224421.82</v>
       </c>
       <c r="C49" t="n">
-        <v>38263.48</v>
+        <v>222965.11</v>
       </c>
       <c r="D49" t="n">
-        <v>38306.38</v>
+        <v>221126.76</v>
       </c>
       <c r="E49" t="n">
-        <v>38250.19</v>
+        <v>222945.73</v>
       </c>
       <c r="F49" t="n">
-        <v>38232.18</v>
+        <v>220543.13</v>
       </c>
       <c r="G49" t="n">
-        <v>38246.93</v>
-      </c>
-      <c r="H49" t="n">
-        <v>38290.23</v>
-      </c>
-      <c r="I49" t="n">
-        <v>38255.53</v>
-      </c>
-      <c r="J49" t="n">
-        <v>38297.76</v>
-      </c>
-      <c r="K49" t="n">
-        <v>38298.8</v>
-      </c>
-      <c r="L49" t="n">
-        <v>38295.29</v>
-      </c>
-      <c r="M49" t="n">
-        <v>38294.21</v>
+        <v>222903.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>240887.66</v>
+        <v>10547825.34</v>
       </c>
       <c r="C50" t="n">
-        <v>247212.54</v>
+        <v>10479360.14</v>
       </c>
       <c r="D50" t="n">
-        <v>238458.54</v>
+        <v>10392957.61</v>
       </c>
       <c r="E50" t="n">
-        <v>227051.01</v>
+        <v>10478449.5</v>
       </c>
       <c r="F50" t="n">
-        <v>230234.09</v>
+        <v>10365527.22</v>
       </c>
       <c r="G50" t="n">
-        <v>229243.96</v>
-      </c>
-      <c r="H50" t="n">
-        <v>229641.74</v>
-      </c>
-      <c r="I50" t="n">
-        <v>227902.42</v>
-      </c>
-      <c r="J50" t="n">
-        <v>228546.96</v>
-      </c>
-      <c r="K50" t="n">
-        <v>228456.15</v>
-      </c>
-      <c r="L50" t="n">
-        <v>226431.99</v>
-      </c>
-      <c r="M50" t="n">
-        <v>224421.82</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>11321720.08</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8899651.43</v>
-      </c>
-      <c r="D51" t="n">
-        <v>11207551.3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10671397.33</v>
-      </c>
-      <c r="F51" t="n">
-        <v>10821002.22</v>
-      </c>
-      <c r="G51" t="n">
-        <v>10774466.19</v>
-      </c>
-      <c r="H51" t="n">
-        <v>10793161.88</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10711413.64</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10741707.24</v>
-      </c>
-      <c r="K51" t="n">
-        <v>10737439.21</v>
-      </c>
-      <c r="L51" t="n">
-        <v>10642303.61</v>
-      </c>
-      <c r="M51" t="n">
-        <v>10547825.34</v>
+        <v>10476460.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>104034.32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>116303.33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>138856.69</v>
+      </c>
+      <c r="E2" t="n">
+        <v>150692.89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150935.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>150755.19</v>
+      </c>
+      <c r="H2" t="n">
+        <v>139432.01</v>
+      </c>
+      <c r="I2" t="n">
+        <v>127377.27</v>
+      </c>
+      <c r="J2" t="n">
+        <v>127424.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>121085.61</v>
+      </c>
+      <c r="L2" t="n">
+        <v>98894.87</v>
+      </c>
+      <c r="M2" t="n">
         <v>84967.63</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86596.67999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85992.16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>86464.09</v>
-      </c>
-      <c r="F2" t="n">
-        <v>86454.99000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91484.62</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>191911.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>203468.12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>203460.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>216322.57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>207606.38</v>
+      </c>
+      <c r="G3" t="n">
+        <v>208016.82</v>
+      </c>
+      <c r="H3" t="n">
+        <v>196934.34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>196828.29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>196630.74</v>
+      </c>
+      <c r="K3" t="n">
+        <v>204181.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>195526.11</v>
+      </c>
+      <c r="M3" t="n">
         <v>209423.09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>209423.81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>207880.72</v>
-      </c>
-      <c r="E3" t="n">
-        <v>209377.18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>209459.08</v>
-      </c>
-      <c r="G3" t="n">
-        <v>218919.05</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>31947.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33986.48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37937.08</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38010.39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37966.13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37878.02</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41389.43</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41448.11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41409.36</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41450.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41379.62</v>
+      </c>
+      <c r="M4" t="n">
         <v>36436.46</v>
-      </c>
-      <c r="C4" t="n">
-        <v>36388.37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36185.47</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36410.46</v>
-      </c>
-      <c r="F4" t="n">
-        <v>41687.52</v>
-      </c>
-      <c r="G4" t="n">
-        <v>41631.65</v>
       </c>
     </row>
     <row r="5">
@@ -546,23 +630,35 @@
           <t>Adcap Wise</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>86329.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>206241.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>191382.93</v>
+      </c>
+      <c r="H5" t="n">
+        <v>191748.63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>189437.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>203318.31</v>
+      </c>
+      <c r="K5" t="n">
+        <v>216590.63</v>
+      </c>
+      <c r="L5" t="n">
+        <v>246417.45</v>
+      </c>
+      <c r="M5" t="n">
         <v>234578.89</v>
-      </c>
-      <c r="C5" t="n">
-        <v>208922.44</v>
-      </c>
-      <c r="D5" t="n">
-        <v>207206.47</v>
-      </c>
-      <c r="E5" t="n">
-        <v>187282.25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>205131.39</v>
-      </c>
-      <c r="G5" t="n">
-        <v>179469.78</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +668,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>53609.39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>53649.92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53615.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54868.94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>54828.93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54883.61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>54895.99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>54873.48</v>
+      </c>
+      <c r="J6" t="n">
+        <v>54894.82</v>
+      </c>
+      <c r="K6" t="n">
+        <v>54919.77</v>
+      </c>
+      <c r="L6" t="n">
+        <v>54877.22</v>
+      </c>
+      <c r="M6" t="n">
         <v>54885.36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>54913.54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>54482.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54866.39</v>
-      </c>
-      <c r="F6" t="n">
-        <v>54890.82</v>
-      </c>
-      <c r="G6" t="n">
-        <v>54841.59</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +711,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>84343.23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>84284.61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84280.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>84190.60000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>84266.25999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>84412.87</v>
+      </c>
+      <c r="H7" t="n">
+        <v>84192.89999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>84419.78</v>
+      </c>
+      <c r="J7" t="n">
+        <v>84361.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>84276.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>84364.88</v>
+      </c>
+      <c r="M7" t="n">
         <v>84409.62</v>
-      </c>
-      <c r="C7" t="n">
-        <v>84265.92999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83728.03</v>
-      </c>
-      <c r="E7" t="n">
-        <v>84320.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>84271.34</v>
-      </c>
-      <c r="G7" t="n">
-        <v>84366.42</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +754,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>232798.17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>232958.18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>232694.66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>232783.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>232478.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>232725.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>232987.47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>220707.13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>220750.19</v>
+      </c>
+      <c r="K8" t="n">
+        <v>221044.62</v>
+      </c>
+      <c r="L8" t="n">
+        <v>193541.04</v>
+      </c>
+      <c r="M8" t="n">
         <v>165672.88</v>
-      </c>
-      <c r="C8" t="n">
-        <v>165483.95</v>
-      </c>
-      <c r="D8" t="n">
-        <v>164174.13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>165606.58</v>
-      </c>
-      <c r="F8" t="n">
-        <v>165319.27</v>
-      </c>
-      <c r="G8" t="n">
-        <v>165372.79</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +797,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6662.21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4153.07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4178.65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4180.88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4154.06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4150.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4177.74</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4158.73</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4172.09</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4169.92</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4170.48</v>
+      </c>
+      <c r="M9" t="n">
         <v>4158.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4177.87</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4119.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4151.88</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4167.66</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4164.95</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +840,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>704406.59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>701809.37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>740380.04</v>
+      </c>
+      <c r="E10" t="n">
+        <v>703849.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>750499.6899999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>720826.62</v>
+      </c>
+      <c r="H10" t="n">
+        <v>719355.95</v>
+      </c>
+      <c r="I10" t="n">
+        <v>719369.5699999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>738104.54</v>
+      </c>
+      <c r="K10" t="n">
+        <v>766718.53</v>
+      </c>
+      <c r="L10" t="n">
+        <v>808987.73</v>
+      </c>
+      <c r="M10" t="n">
         <v>791061.99</v>
-      </c>
-      <c r="C10" t="n">
-        <v>747810.99</v>
-      </c>
-      <c r="D10" t="n">
-        <v>749103.51</v>
-      </c>
-      <c r="E10" t="n">
-        <v>721942.17</v>
-      </c>
-      <c r="F10" t="n">
-        <v>708040.05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>724971.55</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +883,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>10072.37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10064.37</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10079.11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10079.87</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10048.91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10048</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10041.26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10045.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10022</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1198.98</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1198.25</v>
+      </c>
+      <c r="M11" t="n">
         <v>1198.92</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1197.67</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1190.05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1199.21</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1198.99</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1196.78</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +926,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>16812.59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16817.52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16814.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16814.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16824.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16818.99</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16821.44</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16826.33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16821.42</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16808.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16816.87</v>
+      </c>
+      <c r="M12" t="n">
         <v>16819.19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16826.97</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16696.75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16808.94</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16815.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16811.47</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +969,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>208523.69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>176487.81</v>
+      </c>
+      <c r="D13" t="n">
+        <v>159566.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>159509.89</v>
+      </c>
+      <c r="F13" t="n">
+        <v>169490.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>179522.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>188336.34</v>
+      </c>
+      <c r="I13" t="n">
+        <v>188431.97</v>
+      </c>
+      <c r="J13" t="n">
+        <v>188347.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>194332.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>194485.12</v>
+      </c>
+      <c r="M13" t="n">
         <v>194264.12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>204281.35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>198708.93</v>
-      </c>
-      <c r="E13" t="n">
-        <v>187642.83</v>
-      </c>
-      <c r="F13" t="n">
-        <v>187368.68</v>
-      </c>
-      <c r="G13" t="n">
-        <v>190891.85</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1012,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>59095.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>66018.27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68472.66</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77746.60000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87695.03999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>87716.12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>91015.99000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>90973.95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>90971.59</v>
+      </c>
+      <c r="K14" t="n">
+        <v>90976.16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>90979.41</v>
+      </c>
+      <c r="M14" t="n">
         <v>91005.06</v>
-      </c>
-      <c r="C14" t="n">
-        <v>91053.16</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90379.11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>91050.83</v>
-      </c>
-      <c r="F14" t="n">
-        <v>90982.11</v>
-      </c>
-      <c r="G14" t="n">
-        <v>91000.42999999999</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1055,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>213757.81</v>
+      </c>
+      <c r="C15" t="n">
+        <v>213795.36</v>
+      </c>
+      <c r="D15" t="n">
+        <v>213735.11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>213813.45</v>
+      </c>
+      <c r="F15" t="n">
+        <v>213711.99</v>
+      </c>
+      <c r="G15" t="n">
+        <v>212476.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>212484.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>212472.22</v>
+      </c>
+      <c r="J15" t="n">
+        <v>212526.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>212465.16</v>
+      </c>
+      <c r="L15" t="n">
+        <v>212510.13</v>
+      </c>
+      <c r="M15" t="n">
         <v>212457.82</v>
-      </c>
-      <c r="C15" t="n">
-        <v>212371.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>211015.92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>212494.75</v>
-      </c>
-      <c r="F15" t="n">
-        <v>212444.71</v>
-      </c>
-      <c r="G15" t="n">
-        <v>212372.14</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1098,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1284814.59</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1272281.84</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1269199.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1261907.02</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1253639.28</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1242449.71</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1235574.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1224203.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1213742.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1204732.51</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1201539.52</v>
+      </c>
+      <c r="M16" t="n">
         <v>1187866.49</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1181002.74</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1161494.27</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1157008.03</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1141906.87</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1129375.48</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1141,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>12520.43</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12520.97</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12522.36</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12522.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12523.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12518.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12518.52</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12520.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12521.17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12523.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12518.05</v>
+      </c>
+      <c r="M17" t="n">
         <v>12521.51</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12519.81</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12428.52</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12522.38</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12518.93</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10520.76</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1184,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>439565.08</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>439678</v>
+      </c>
+      <c r="E18" t="n">
+        <v>439705.29</v>
+      </c>
+      <c r="F18" t="n">
+        <v>439542.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>439638.65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>439680.78</v>
+      </c>
+      <c r="I18" t="n">
+        <v>439842.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427648.52</v>
+      </c>
+      <c r="K18" t="n">
+        <v>427627.66</v>
+      </c>
+      <c r="L18" t="n">
+        <v>427794.37</v>
+      </c>
+      <c r="M18" t="n">
         <v>427299.7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>427675.86</v>
-      </c>
-      <c r="D18" t="n">
-        <v>424654.06</v>
-      </c>
-      <c r="E18" t="n">
-        <v>427287.66</v>
-      </c>
-      <c r="F18" t="n">
-        <v>427491.44</v>
-      </c>
-      <c r="G18" t="n">
-        <v>412252.95</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1225,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>174898.74</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>175064.54</v>
+      </c>
+      <c r="E19" t="n">
+        <v>174910.21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>175067.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>175013.93</v>
+      </c>
+      <c r="H19" t="n">
+        <v>175127.45</v>
+      </c>
+      <c r="I19" t="n">
+        <v>175090.63</v>
+      </c>
+      <c r="J19" t="n">
+        <v>174839.28</v>
+      </c>
+      <c r="K19" t="n">
+        <v>181656.65</v>
+      </c>
+      <c r="L19" t="n">
+        <v>184886.83</v>
+      </c>
+      <c r="M19" t="n">
         <v>184982.44</v>
-      </c>
-      <c r="C19" t="n">
-        <v>184842.82</v>
-      </c>
-      <c r="D19" t="n">
-        <v>183505.76</v>
-      </c>
-      <c r="E19" t="n">
-        <v>184972.45</v>
-      </c>
-      <c r="F19" t="n">
-        <v>184813.07</v>
-      </c>
-      <c r="G19" t="n">
-        <v>199926.6</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1266,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>61968.7</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>58139.82</v>
+      </c>
+      <c r="E20" t="n">
+        <v>58172.56</v>
+      </c>
+      <c r="F20" t="n">
+        <v>58193.13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>58128.98</v>
+      </c>
+      <c r="H20" t="n">
+        <v>58181.49</v>
+      </c>
+      <c r="I20" t="n">
+        <v>58127.53</v>
+      </c>
+      <c r="J20" t="n">
+        <v>58148.11</v>
+      </c>
+      <c r="K20" t="n">
+        <v>58187.72</v>
+      </c>
+      <c r="L20" t="n">
+        <v>58161.04</v>
+      </c>
+      <c r="M20" t="n">
         <v>58194.27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>58119.16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57696.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>58146.07</v>
-      </c>
-      <c r="F20" t="n">
-        <v>58134.03</v>
-      </c>
-      <c r="G20" t="n">
-        <v>68021.27</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1307,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>168.74</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>167.69</v>
+      </c>
+      <c r="E21" t="n">
+        <v>169.38</v>
+      </c>
+      <c r="F21" t="n">
+        <v>167.21</v>
+      </c>
+      <c r="G21" t="n">
+        <v>169.47</v>
+      </c>
+      <c r="H21" t="n">
+        <v>169.33</v>
+      </c>
+      <c r="I21" t="n">
+        <v>173.04</v>
+      </c>
+      <c r="J21" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>168.63</v>
+      </c>
+      <c r="L21" t="n">
+        <v>171.31</v>
+      </c>
+      <c r="M21" t="n">
         <v>168.41</v>
-      </c>
-      <c r="C21" t="n">
-        <v>172.34</v>
-      </c>
-      <c r="D21" t="n">
-        <v>166.53</v>
-      </c>
-      <c r="E21" t="n">
-        <v>172.55</v>
-      </c>
-      <c r="F21" t="n">
-        <v>166.82</v>
-      </c>
-      <c r="G21" t="n">
-        <v>170.12</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1348,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>558129.01</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>523848.18</v>
+      </c>
+      <c r="E22" t="n">
+        <v>521541.45</v>
+      </c>
+      <c r="F22" t="n">
+        <v>509160.87</v>
+      </c>
+      <c r="G22" t="n">
+        <v>496636.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>496638.72</v>
+      </c>
+      <c r="I22" t="n">
+        <v>496762.32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>476463.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>468093.21</v>
+      </c>
+      <c r="L22" t="n">
+        <v>430016.52</v>
+      </c>
+      <c r="M22" t="n">
         <v>430077.14</v>
-      </c>
-      <c r="C22" t="n">
-        <v>430005.77</v>
-      </c>
-      <c r="D22" t="n">
-        <v>427120.52</v>
-      </c>
-      <c r="E22" t="n">
-        <v>430090.47</v>
-      </c>
-      <c r="F22" t="n">
-        <v>430242.31</v>
-      </c>
-      <c r="G22" t="n">
-        <v>442986.74</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1389,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>390493.53</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>372231.98</v>
+      </c>
+      <c r="E23" t="n">
+        <v>365106.96</v>
+      </c>
+      <c r="F23" t="n">
+        <v>352325.65</v>
+      </c>
+      <c r="G23" t="n">
+        <v>352371.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>352494.41</v>
+      </c>
+      <c r="I23" t="n">
+        <v>352548.47</v>
+      </c>
+      <c r="J23" t="n">
+        <v>352684.27</v>
+      </c>
+      <c r="K23" t="n">
+        <v>352618.32</v>
+      </c>
+      <c r="L23" t="n">
+        <v>352072.31</v>
+      </c>
+      <c r="M23" t="n">
         <v>352469.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>352142.21</v>
-      </c>
-      <c r="D23" t="n">
-        <v>349704.2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>352521.65</v>
-      </c>
-      <c r="F23" t="n">
-        <v>352260.7</v>
-      </c>
-      <c r="G23" t="n">
-        <v>372035.73</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1430,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>106145.82</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>106377.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105901.65</v>
+      </c>
+      <c r="F24" t="n">
+        <v>105980.39</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105828.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>105997.13</v>
+      </c>
+      <c r="I24" t="n">
+        <v>106403.23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>106048.35</v>
+      </c>
+      <c r="K24" t="n">
+        <v>106239.63</v>
+      </c>
+      <c r="L24" t="n">
+        <v>106305.48</v>
+      </c>
+      <c r="M24" t="n">
         <v>105958.31</v>
-      </c>
-      <c r="C24" t="n">
-        <v>106431.84</v>
-      </c>
-      <c r="D24" t="n">
-        <v>105300.72</v>
-      </c>
-      <c r="E24" t="n">
-        <v>106331.37</v>
-      </c>
-      <c r="F24" t="n">
-        <v>105959.43</v>
-      </c>
-      <c r="G24" t="n">
-        <v>114041.93</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1471,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>175952.1</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>167897.03</v>
+      </c>
+      <c r="E25" t="n">
+        <v>168737.74</v>
+      </c>
+      <c r="F25" t="n">
+        <v>173337.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>170046.94</v>
+      </c>
+      <c r="H25" t="n">
+        <v>169928.24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>161849.39</v>
+      </c>
+      <c r="J25" t="n">
+        <v>159117.06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>152376.46</v>
+      </c>
+      <c r="L25" t="n">
+        <v>148351.64</v>
+      </c>
+      <c r="M25" t="n">
         <v>148268.77</v>
-      </c>
-      <c r="C25" t="n">
-        <v>148250.93</v>
-      </c>
-      <c r="D25" t="n">
-        <v>147399.14</v>
-      </c>
-      <c r="E25" t="n">
-        <v>148192.75</v>
-      </c>
-      <c r="F25" t="n">
-        <v>148492.01</v>
-      </c>
-      <c r="G25" t="n">
-        <v>155505.67</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1512,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>173673.42</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>171684.12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>160320.36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>159091.01</v>
+      </c>
+      <c r="G26" t="n">
+        <v>157683.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>157518.77</v>
+      </c>
+      <c r="I26" t="n">
+        <v>154043.22</v>
+      </c>
+      <c r="J26" t="n">
+        <v>149243.77</v>
+      </c>
+      <c r="K26" t="n">
+        <v>144357.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>140557.79</v>
+      </c>
+      <c r="M26" t="n">
         <v>140689.51</v>
-      </c>
-      <c r="C26" t="n">
-        <v>140847.98</v>
-      </c>
-      <c r="D26" t="n">
-        <v>139754.09</v>
-      </c>
-      <c r="E26" t="n">
-        <v>137286.18</v>
-      </c>
-      <c r="F26" t="n">
-        <v>139854.28</v>
-      </c>
-      <c r="G26" t="n">
-        <v>145967.24</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1553,38 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>215351.45</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>199185.43</v>
+      </c>
+      <c r="E27" t="n">
+        <v>308615.96</v>
+      </c>
+      <c r="F27" t="n">
+        <v>308755.43</v>
+      </c>
+      <c r="G27" t="n">
+        <v>310819.31</v>
+      </c>
+      <c r="H27" t="n">
+        <v>311053.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>309966.34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>301069.07</v>
+      </c>
+      <c r="K27" t="n">
+        <v>298800.56</v>
+      </c>
+      <c r="L27" t="n">
+        <v>286083.95</v>
+      </c>
+      <c r="M27" t="n">
         <v>280309.12</v>
-      </c>
-      <c r="C27" t="n">
-        <v>280221.93</v>
-      </c>
-      <c r="D27" t="n">
-        <v>277168.76</v>
-      </c>
-      <c r="E27" t="n">
-        <v>299734.97</v>
-      </c>
-      <c r="F27" t="n">
-        <v>325270.2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>340037.44</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1594,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>95490.92999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>100237.12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>103219.71</v>
+      </c>
+      <c r="E28" t="n">
+        <v>106095.99</v>
+      </c>
+      <c r="F28" t="n">
+        <v>107280.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>107366.52</v>
+      </c>
+      <c r="H28" t="n">
+        <v>107231.02</v>
+      </c>
+      <c r="I28" t="n">
+        <v>107373.18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>107308.36</v>
+      </c>
+      <c r="K28" t="n">
+        <v>107141.03</v>
+      </c>
+      <c r="L28" t="n">
+        <v>107131.5</v>
+      </c>
+      <c r="M28" t="n">
         <v>107224.37</v>
-      </c>
-      <c r="C28" t="n">
-        <v>105393.02</v>
-      </c>
-      <c r="D28" t="n">
-        <v>104712.95</v>
-      </c>
-      <c r="E28" t="n">
-        <v>100366.27</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100253.05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>98423.75999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1637,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>87729.00999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>87721.81</v>
+      </c>
+      <c r="D29" t="n">
+        <v>62722.62</v>
+      </c>
+      <c r="E29" t="n">
+        <v>62643.17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>62721.62</v>
+      </c>
+      <c r="G29" t="n">
+        <v>62636.29</v>
+      </c>
+      <c r="H29" t="n">
+        <v>101492.09</v>
+      </c>
+      <c r="I29" t="n">
+        <v>101534.83</v>
+      </c>
+      <c r="J29" t="n">
+        <v>101430.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>101558.86</v>
+      </c>
+      <c r="L29" t="n">
+        <v>101524.62</v>
+      </c>
+      <c r="M29" t="n">
         <v>101451.77</v>
-      </c>
-      <c r="C29" t="n">
-        <v>101470.48</v>
-      </c>
-      <c r="D29" t="n">
-        <v>100776.39</v>
-      </c>
-      <c r="E29" t="n">
-        <v>101529.87</v>
-      </c>
-      <c r="F29" t="n">
-        <v>101549.31</v>
-      </c>
-      <c r="G29" t="n">
-        <v>101485.2</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1680,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>1976674.58</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1928360.97</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1927707.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1927326.51</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1927886.93</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1927788.31</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1928825.94</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1928677.74</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2000787.42</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2000058.94</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1999489.08</v>
+      </c>
+      <c r="M30" t="n">
         <v>2000367.93</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2000360.74</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1985306.17</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2000737.27</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1799967.29</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1799804.16</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1723,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>45747.36</v>
+      </c>
+      <c r="C31" t="n">
+        <v>45714.74</v>
+      </c>
+      <c r="D31" t="n">
+        <v>35730.41</v>
+      </c>
+      <c r="E31" t="n">
+        <v>35726.19</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35730.85</v>
+      </c>
+      <c r="G31" t="n">
+        <v>35695.19</v>
+      </c>
+      <c r="H31" t="n">
+        <v>35706.66</v>
+      </c>
+      <c r="I31" t="n">
+        <v>35759.11</v>
+      </c>
+      <c r="J31" t="n">
+        <v>35741.39</v>
+      </c>
+      <c r="K31" t="n">
+        <v>35722.53</v>
+      </c>
+      <c r="L31" t="n">
+        <v>35728.72</v>
+      </c>
+      <c r="M31" t="n">
         <v>31211.29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>31209.59</v>
-      </c>
-      <c r="D31" t="n">
-        <v>31004.09</v>
-      </c>
-      <c r="E31" t="n">
-        <v>31214.28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>31213.15</v>
-      </c>
-      <c r="G31" t="n">
-        <v>31231.55</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1766,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>4558.05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4555.44</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4554.66</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4557.09</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4546.79</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4546.98</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4553.61</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4558.31</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4553.65</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4554.73</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4557.14</v>
+      </c>
+      <c r="M32" t="n">
         <v>4556.82</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4553.38</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4521.17</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4551.65</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4551.52</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4550.67</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1809,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>138789.82</v>
+      </c>
+      <c r="C33" t="n">
+        <v>133733.32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>128764.11</v>
+      </c>
+      <c r="E33" t="n">
+        <v>123770.34</v>
+      </c>
+      <c r="F33" t="n">
+        <v>118743.71</v>
+      </c>
+      <c r="G33" t="n">
+        <v>125766.47</v>
+      </c>
+      <c r="H33" t="n">
+        <v>128885.75</v>
+      </c>
+      <c r="I33" t="n">
+        <v>118752.95</v>
+      </c>
+      <c r="J33" t="n">
+        <v>113754.89</v>
+      </c>
+      <c r="K33" t="n">
+        <v>108745.65</v>
+      </c>
+      <c r="L33" t="n">
+        <v>102739.39</v>
+      </c>
+      <c r="M33" t="n">
         <v>102807.14</v>
-      </c>
-      <c r="C33" t="n">
-        <v>98784.37</v>
-      </c>
-      <c r="D33" t="n">
-        <v>98062.7</v>
-      </c>
-      <c r="E33" t="n">
-        <v>98751.99000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>98727.71000000001</v>
-      </c>
-      <c r="G33" t="n">
-        <v>93831.55</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1852,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>275283.19</v>
+      </c>
+      <c r="C34" t="n">
+        <v>265073.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>225396.48</v>
+      </c>
+      <c r="E34" t="n">
+        <v>220224.98</v>
+      </c>
+      <c r="F34" t="n">
+        <v>220368.55</v>
+      </c>
+      <c r="G34" t="n">
+        <v>225203.37</v>
+      </c>
+      <c r="H34" t="n">
+        <v>225086.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>215352.48</v>
+      </c>
+      <c r="J34" t="n">
+        <v>215432.52</v>
+      </c>
+      <c r="K34" t="n">
+        <v>208122.04</v>
+      </c>
+      <c r="L34" t="n">
+        <v>192818.77</v>
+      </c>
+      <c r="M34" t="n">
         <v>192911.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>192636.66</v>
-      </c>
-      <c r="D34" t="n">
-        <v>191232.72</v>
-      </c>
-      <c r="E34" t="n">
-        <v>192797.08</v>
-      </c>
-      <c r="F34" t="n">
-        <v>192807.26</v>
-      </c>
-      <c r="G34" t="n">
-        <v>200696.2</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1895,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>32436.65</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33943.21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>43659.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>45674.62</v>
+      </c>
+      <c r="F35" t="n">
+        <v>45256.54</v>
+      </c>
+      <c r="G35" t="n">
+        <v>45285.52</v>
+      </c>
+      <c r="H35" t="n">
+        <v>53728.33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>53769.44</v>
+      </c>
+      <c r="J35" t="n">
+        <v>53791.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>53750.74</v>
+      </c>
+      <c r="L35" t="n">
+        <v>53428.12</v>
+      </c>
+      <c r="M35" t="n">
         <v>47035.15</v>
-      </c>
-      <c r="C35" t="n">
-        <v>47033.26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>45413.28</v>
-      </c>
-      <c r="E35" t="n">
-        <v>45302.22</v>
-      </c>
-      <c r="F35" t="n">
-        <v>46027.86</v>
-      </c>
-      <c r="G35" t="n">
-        <v>48886.03</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1938,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>8103.05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8104.65</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9325.459999999999</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9326.92</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9321.530000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9321.879999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9317.59</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9319.24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9321.209999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9327.35</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9317.48</v>
+      </c>
+      <c r="M36" t="n">
         <v>9326.950000000001</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8469.41</v>
-      </c>
-      <c r="D36" t="n">
-        <v>8410.68</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8471.17</v>
-      </c>
-      <c r="F36" t="n">
-        <v>8462.690000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8470.559999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1981,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>21706.76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21711.31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21656.68</v>
+      </c>
+      <c r="E37" t="n">
+        <v>24969.49</v>
+      </c>
+      <c r="F37" t="n">
+        <v>25035.27</v>
+      </c>
+      <c r="G37" t="n">
+        <v>29033.67</v>
+      </c>
+      <c r="H37" t="n">
+        <v>28953.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33985.81</v>
+      </c>
+      <c r="J37" t="n">
+        <v>37513.84</v>
+      </c>
+      <c r="K37" t="n">
+        <v>34010.88</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32467.98</v>
+      </c>
+      <c r="M37" t="n">
         <v>32489.35</v>
-      </c>
-      <c r="C37" t="n">
-        <v>30514.68</v>
-      </c>
-      <c r="D37" t="n">
-        <v>30295.91</v>
-      </c>
-      <c r="E37" t="n">
-        <v>32541.56</v>
-      </c>
-      <c r="F37" t="n">
-        <v>33464.33</v>
-      </c>
-      <c r="G37" t="n">
-        <v>35745.62</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2024,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>23745.09</v>
+      </c>
+      <c r="C38" t="n">
+        <v>23704.47</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23747.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>40728.91</v>
+      </c>
+      <c r="F38" t="n">
+        <v>40710.44</v>
+      </c>
+      <c r="G38" t="n">
+        <v>40734.01</v>
+      </c>
+      <c r="H38" t="n">
+        <v>40697</v>
+      </c>
+      <c r="I38" t="n">
+        <v>40747.59</v>
+      </c>
+      <c r="J38" t="n">
+        <v>40717.54</v>
+      </c>
+      <c r="K38" t="n">
+        <v>40699.43</v>
+      </c>
+      <c r="L38" t="n">
+        <v>40748.71</v>
+      </c>
+      <c r="M38" t="n">
         <v>40692.87</v>
-      </c>
-      <c r="C38" t="n">
-        <v>40717.52</v>
-      </c>
-      <c r="D38" t="n">
-        <v>40405.87</v>
-      </c>
-      <c r="E38" t="n">
-        <v>40749.26</v>
-      </c>
-      <c r="F38" t="n">
-        <v>40750.41</v>
-      </c>
-      <c r="G38" t="n">
-        <v>40688.48</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2067,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>30176.82</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30163.52</v>
+      </c>
+      <c r="D39" t="n">
+        <v>21802.78</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24993.69</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24997.19</v>
+      </c>
+      <c r="G39" t="n">
+        <v>24968.27</v>
+      </c>
+      <c r="H39" t="n">
+        <v>25002.29</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24973.08</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24996.93</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24974</v>
+      </c>
+      <c r="L39" t="n">
+        <v>24972.35</v>
+      </c>
+      <c r="M39" t="n">
         <v>24969.62</v>
-      </c>
-      <c r="C39" t="n">
-        <v>24989.24</v>
-      </c>
-      <c r="D39" t="n">
-        <v>24793.82</v>
-      </c>
-      <c r="E39" t="n">
-        <v>31773.87</v>
-      </c>
-      <c r="F39" t="n">
-        <v>31799.97</v>
-      </c>
-      <c r="G39" t="n">
-        <v>34891.13</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2110,38 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>61581.46</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>61608.13</v>
+      </c>
+      <c r="E40" t="n">
+        <v>61591.51</v>
+      </c>
+      <c r="F40" t="n">
+        <v>61586.06</v>
+      </c>
+      <c r="G40" t="n">
+        <v>69618.32000000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>69529.59</v>
+      </c>
+      <c r="I40" t="n">
+        <v>69607.89</v>
+      </c>
+      <c r="J40" t="n">
+        <v>69551.28999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>69491.53</v>
+      </c>
+      <c r="L40" t="n">
+        <v>69660.37</v>
+      </c>
+      <c r="M40" t="n">
         <v>69618.17</v>
-      </c>
-      <c r="C40" t="n">
-        <v>69487.23</v>
-      </c>
-      <c r="D40" t="n">
-        <v>69055.14999999999</v>
-      </c>
-      <c r="E40" t="n">
-        <v>69532.28</v>
-      </c>
-      <c r="F40" t="n">
-        <v>69604.86</v>
-      </c>
-      <c r="G40" t="n">
-        <v>69530.06</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2151,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>132762.87</v>
+      </c>
+      <c r="C41" t="n">
+        <v>132740.58</v>
+      </c>
+      <c r="D41" t="n">
+        <v>132695.81</v>
+      </c>
+      <c r="E41" t="n">
+        <v>132957.68</v>
+      </c>
+      <c r="F41" t="n">
+        <v>132938.59</v>
+      </c>
+      <c r="G41" t="n">
+        <v>132915.02</v>
+      </c>
+      <c r="H41" t="n">
+        <v>132804</v>
+      </c>
+      <c r="I41" t="n">
+        <v>132756.39</v>
+      </c>
+      <c r="J41" t="n">
+        <v>132873.62</v>
+      </c>
+      <c r="K41" t="n">
+        <v>132665.54</v>
+      </c>
+      <c r="L41" t="n">
+        <v>119553.86</v>
+      </c>
+      <c r="M41" t="n">
         <v>119396.72</v>
-      </c>
-      <c r="C41" t="n">
-        <v>119329.01</v>
-      </c>
-      <c r="D41" t="n">
-        <v>118507.75</v>
-      </c>
-      <c r="E41" t="n">
-        <v>119564.62</v>
-      </c>
-      <c r="F41" t="n">
-        <v>119453.19</v>
-      </c>
-      <c r="G41" t="n">
-        <v>119470.09</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2194,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>34754.06</v>
+      </c>
+      <c r="C42" t="n">
+        <v>34785.32</v>
+      </c>
+      <c r="D42" t="n">
+        <v>34697.72</v>
+      </c>
+      <c r="E42" t="n">
+        <v>34737.25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>34786.72</v>
+      </c>
+      <c r="G42" t="n">
+        <v>34726.67</v>
+      </c>
+      <c r="H42" t="n">
+        <v>44796.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44784.97</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44782.36</v>
+      </c>
+      <c r="K42" t="n">
+        <v>42003.29</v>
+      </c>
+      <c r="L42" t="n">
+        <v>46070.29</v>
+      </c>
+      <c r="M42" t="n">
         <v>46067.63</v>
-      </c>
-      <c r="C42" t="n">
-        <v>54055.89</v>
-      </c>
-      <c r="D42" t="n">
-        <v>53614.41</v>
-      </c>
-      <c r="E42" t="n">
-        <v>54020.06</v>
-      </c>
-      <c r="F42" t="n">
-        <v>54032.28</v>
-      </c>
-      <c r="G42" t="n">
-        <v>62103.49</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2237,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>96329.37</v>
+      </c>
+      <c r="C43" t="n">
+        <v>96227.52</v>
+      </c>
+      <c r="D43" t="n">
+        <v>96150.28</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96327.45</v>
+      </c>
+      <c r="F43" t="n">
+        <v>96174.06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>96284.45</v>
+      </c>
+      <c r="H43" t="n">
+        <v>96267.00999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>96198.17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>96306.71000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>96194.56</v>
+      </c>
+      <c r="L43" t="n">
+        <v>96177.67999999999</v>
+      </c>
+      <c r="M43" t="n">
         <v>96341.89999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>96331.58</v>
-      </c>
-      <c r="D43" t="n">
-        <v>95512.12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>119871.03</v>
-      </c>
-      <c r="F43" t="n">
-        <v>119747.91</v>
-      </c>
-      <c r="G43" t="n">
-        <v>130851.41</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2280,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>66545.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>66517.99000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>62656.78</v>
+      </c>
+      <c r="E44" t="n">
+        <v>61509.05</v>
+      </c>
+      <c r="F44" t="n">
+        <v>66320.41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>67068.96000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>67245.98</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67250.89</v>
+      </c>
+      <c r="J44" t="n">
+        <v>67246.27</v>
+      </c>
+      <c r="K44" t="n">
+        <v>67197.84</v>
+      </c>
+      <c r="L44" t="n">
+        <v>67248.10000000001</v>
+      </c>
+      <c r="M44" t="n">
         <v>65355.48</v>
-      </c>
-      <c r="C44" t="n">
-        <v>61921.64</v>
-      </c>
-      <c r="D44" t="n">
-        <v>61468.63</v>
-      </c>
-      <c r="E44" t="n">
-        <v>62566.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>61817.56</v>
-      </c>
-      <c r="G44" t="n">
-        <v>67279.08</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +2323,40 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>548193.05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>560367.16</v>
+      </c>
+      <c r="D45" t="n">
+        <v>572931.5699999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>621141.78</v>
+      </c>
+      <c r="F45" t="n">
+        <v>620842.34</v>
+      </c>
+      <c r="G45" t="n">
+        <v>620921.27</v>
+      </c>
+      <c r="H45" t="n">
+        <v>606678.62</v>
+      </c>
+      <c r="I45" t="n">
+        <v>606566.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>607039.34</v>
+      </c>
+      <c r="K45" t="n">
+        <v>606653.52</v>
+      </c>
+      <c r="L45" t="n">
+        <v>588815.9399999999</v>
+      </c>
+      <c r="M45" t="n">
         <v>588739.62</v>
-      </c>
-      <c r="C45" t="n">
-        <v>589151.98</v>
-      </c>
-      <c r="D45" t="n">
-        <v>584616.77</v>
-      </c>
-      <c r="E45" t="n">
-        <v>633052.65</v>
-      </c>
-      <c r="F45" t="n">
-        <v>656535.58</v>
-      </c>
-      <c r="G45" t="n">
-        <v>656378.36</v>
       </c>
     </row>
     <row r="46">
@@ -1572,122 +2366,237 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>1317408.94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1317359.35</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1317336.23</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1317734.58</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1317579.31</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1308596.16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1294205.99</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1277205.13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1263861.86</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1263367.97</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1264019.31</v>
+      </c>
+      <c r="M46" t="n">
         <v>1263393.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1263234.84</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1254889.24</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1263881.04</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1263327.82</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1263780.82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55427.65</v>
+        <v>715172.0600000001</v>
       </c>
       <c r="C47" t="n">
-        <v>55480.38</v>
+        <v>716517.87</v>
       </c>
       <c r="D47" t="n">
-        <v>55085.2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>54993.48</v>
-      </c>
-      <c r="F47" t="n">
-        <v>97808.13</v>
-      </c>
-      <c r="G47" t="n">
-        <v>97701.39999999999</v>
-      </c>
+        <v>767218.66</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>38294.21</v>
+        <v>54956.5</v>
       </c>
       <c r="C48" t="n">
-        <v>38287.52</v>
+        <v>55248.68</v>
       </c>
       <c r="D48" t="n">
-        <v>38016.09</v>
+        <v>55593.54</v>
       </c>
       <c r="E48" t="n">
-        <v>38296.91</v>
+        <v>54306.86</v>
       </c>
       <c r="F48" t="n">
-        <v>38283.08</v>
+        <v>55410.8</v>
       </c>
       <c r="G48" t="n">
-        <v>42323.51</v>
+        <v>54823.01</v>
+      </c>
+      <c r="H48" t="n">
+        <v>55166.05</v>
+      </c>
+      <c r="I48" t="n">
+        <v>55083.68</v>
+      </c>
+      <c r="J48" t="n">
+        <v>54949.44</v>
+      </c>
+      <c r="K48" t="n">
+        <v>55298.79</v>
+      </c>
+      <c r="L48" t="n">
+        <v>54930.92</v>
+      </c>
+      <c r="M48" t="n">
+        <v>55427.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>224421.82</v>
+        <v>41918.65</v>
       </c>
       <c r="C49" t="n">
-        <v>222965.11</v>
+        <v>38263.48</v>
       </c>
       <c r="D49" t="n">
-        <v>221126.76</v>
+        <v>38306.38</v>
       </c>
       <c r="E49" t="n">
-        <v>222945.73</v>
+        <v>38250.19</v>
       </c>
       <c r="F49" t="n">
-        <v>220543.13</v>
+        <v>38232.18</v>
       </c>
       <c r="G49" t="n">
-        <v>222903.41</v>
+        <v>38246.93</v>
+      </c>
+      <c r="H49" t="n">
+        <v>38290.23</v>
+      </c>
+      <c r="I49" t="n">
+        <v>38255.53</v>
+      </c>
+      <c r="J49" t="n">
+        <v>38297.76</v>
+      </c>
+      <c r="K49" t="n">
+        <v>38298.8</v>
+      </c>
+      <c r="L49" t="n">
+        <v>38295.29</v>
+      </c>
+      <c r="M49" t="n">
+        <v>38294.21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>240887.66</v>
+      </c>
+      <c r="C50" t="n">
+        <v>247212.54</v>
+      </c>
+      <c r="D50" t="n">
+        <v>238458.54</v>
+      </c>
+      <c r="E50" t="n">
+        <v>227051.01</v>
+      </c>
+      <c r="F50" t="n">
+        <v>230234.09</v>
+      </c>
+      <c r="G50" t="n">
+        <v>229243.96</v>
+      </c>
+      <c r="H50" t="n">
+        <v>229641.74</v>
+      </c>
+      <c r="I50" t="n">
+        <v>227902.42</v>
+      </c>
+      <c r="J50" t="n">
+        <v>228546.96</v>
+      </c>
+      <c r="K50" t="n">
+        <v>228456.15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>226431.99</v>
+      </c>
+      <c r="M50" t="n">
+        <v>224421.82</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
+        <v>11321720.08</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8899651.43</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11207551.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10671397.33</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10821002.22</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10774466.19</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10793161.88</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10711413.64</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10741707.24</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10737439.21</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10642303.61</v>
+      </c>
+      <c r="M51" t="n">
         <v>10547825.34</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10479360.14</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10392957.61</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10478449.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10365527.22</v>
-      </c>
-      <c r="G50" t="n">
-        <v>10476460.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGSU2.xlsx
+++ b/backend/src/excel_handler/files/TGSU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104034.32</v>
+        <v>84967.63</v>
       </c>
       <c r="C2" t="n">
-        <v>116303.33</v>
+        <v>86596.67999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>138856.69</v>
+        <v>85992.16</v>
       </c>
       <c r="E2" t="n">
-        <v>150692.89</v>
+        <v>86464.09</v>
       </c>
       <c r="F2" t="n">
-        <v>150935.15</v>
+        <v>86454.99000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>150755.19</v>
+        <v>91484.62</v>
       </c>
       <c r="H2" t="n">
-        <v>139432.01</v>
+        <v>91354.12</v>
       </c>
       <c r="I2" t="n">
-        <v>127377.27</v>
+        <v>91387.92</v>
       </c>
       <c r="J2" t="n">
-        <v>127424.06</v>
+        <v>103783.31</v>
       </c>
       <c r="K2" t="n">
-        <v>121085.61</v>
+        <v>103821.8</v>
       </c>
       <c r="L2" t="n">
-        <v>98894.87</v>
+        <v>107853.69</v>
       </c>
       <c r="M2" t="n">
-        <v>84967.63</v>
+        <v>115688.44</v>
+      </c>
+      <c r="N2" t="n">
+        <v>116053.85</v>
+      </c>
+      <c r="O2" t="n">
+        <v>136265.05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>145056.84</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>145178.87</v>
+      </c>
+      <c r="R2" t="n">
+        <v>153478.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>157110.99</v>
+      </c>
+      <c r="T2" t="n">
+        <v>157088.77</v>
+      </c>
+      <c r="U2" t="n">
+        <v>142931.87</v>
+      </c>
+      <c r="V2" t="n">
+        <v>179764.85</v>
+      </c>
+      <c r="W2" t="n">
+        <v>179754.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>208510.62</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>208289.61</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>201276.12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>197536.65</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191911.68</v>
+        <v>209423.09</v>
       </c>
       <c r="C3" t="n">
-        <v>203468.12</v>
+        <v>209423.81</v>
       </c>
       <c r="D3" t="n">
-        <v>203460.9</v>
+        <v>207880.72</v>
       </c>
       <c r="E3" t="n">
-        <v>216322.57</v>
+        <v>209377.18</v>
       </c>
       <c r="F3" t="n">
-        <v>207606.38</v>
+        <v>209459.08</v>
       </c>
       <c r="G3" t="n">
-        <v>208016.82</v>
+        <v>218919.05</v>
       </c>
       <c r="H3" t="n">
-        <v>196934.34</v>
+        <v>218676.85</v>
       </c>
       <c r="I3" t="n">
-        <v>196828.29</v>
+        <v>218705.78</v>
       </c>
       <c r="J3" t="n">
-        <v>196630.74</v>
+        <v>230597.15</v>
       </c>
       <c r="K3" t="n">
-        <v>204181.38</v>
+        <v>230654.84</v>
       </c>
       <c r="L3" t="n">
-        <v>195526.11</v>
+        <v>230393.41</v>
       </c>
       <c r="M3" t="n">
-        <v>209423.09</v>
+        <v>230212.25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>230554.24</v>
+      </c>
+      <c r="O3" t="n">
+        <v>230690.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>230344.06</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>238513.11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>238333.64</v>
+      </c>
+      <c r="S3" t="n">
+        <v>238619.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>251007.29</v>
+      </c>
+      <c r="U3" t="n">
+        <v>238194.31</v>
+      </c>
+      <c r="V3" t="n">
+        <v>237919.23</v>
+      </c>
+      <c r="W3" t="n">
+        <v>252498.52</v>
+      </c>
+      <c r="X3" t="n">
+        <v>264884.48</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>252167.24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>255189.73</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>255448.58</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31947.73</v>
+        <v>36436.46</v>
       </c>
       <c r="C4" t="n">
-        <v>33986.48</v>
+        <v>36388.37</v>
       </c>
       <c r="D4" t="n">
-        <v>37937.08</v>
+        <v>36185.47</v>
       </c>
       <c r="E4" t="n">
-        <v>38010.39</v>
+        <v>36410.46</v>
       </c>
       <c r="F4" t="n">
-        <v>37966.13</v>
+        <v>41687.52</v>
       </c>
       <c r="G4" t="n">
-        <v>37878.02</v>
+        <v>41631.65</v>
       </c>
       <c r="H4" t="n">
-        <v>41389.43</v>
+        <v>41709.89</v>
       </c>
       <c r="I4" t="n">
-        <v>41448.11</v>
+        <v>41690.88</v>
       </c>
       <c r="J4" t="n">
-        <v>41409.36</v>
+        <v>41649.61</v>
       </c>
       <c r="K4" t="n">
-        <v>41450.7</v>
+        <v>41698.73</v>
       </c>
       <c r="L4" t="n">
-        <v>41379.62</v>
+        <v>41658.55</v>
       </c>
       <c r="M4" t="n">
-        <v>36436.46</v>
+        <v>41670.58</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41709.59</v>
+      </c>
+      <c r="O4" t="n">
+        <v>41679.94</v>
+      </c>
+      <c r="P4" t="n">
+        <v>45179.93</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>45224.29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>45146.55</v>
+      </c>
+      <c r="S4" t="n">
+        <v>45157.77</v>
+      </c>
+      <c r="T4" t="n">
+        <v>45169</v>
+      </c>
+      <c r="U4" t="n">
+        <v>43742.31</v>
+      </c>
+      <c r="V4" t="n">
+        <v>104344.18</v>
+      </c>
+      <c r="W4" t="n">
+        <v>103845.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>103978.78</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>103958.02</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>103915.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>103981.97</v>
       </c>
     </row>
     <row r="5">
@@ -630,35 +826,71 @@
           <t>Adcap Wise</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>234578.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>208922.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>207206.47</v>
+      </c>
       <c r="E5" t="n">
-        <v>86329.19</v>
+        <v>187282.25</v>
       </c>
       <c r="F5" t="n">
-        <v>206241.54</v>
+        <v>205131.39</v>
       </c>
       <c r="G5" t="n">
-        <v>191382.93</v>
+        <v>179469.78</v>
       </c>
       <c r="H5" t="n">
-        <v>191748.63</v>
+        <v>169793.08</v>
       </c>
       <c r="I5" t="n">
-        <v>189437.52</v>
+        <v>156799.02</v>
       </c>
       <c r="J5" t="n">
-        <v>203318.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>216590.63</v>
-      </c>
-      <c r="L5" t="n">
-        <v>246417.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>234578.89</v>
+        <v>164251.91</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>93623.41</v>
+      </c>
+      <c r="R5" t="n">
+        <v>87343.28999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>98018.78999999999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>106491.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>98593.08</v>
+      </c>
+      <c r="V5" t="n">
+        <v>93978.92</v>
+      </c>
+      <c r="W5" t="n">
+        <v>93963.75999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>97144.66</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>111745.55</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>112706.35</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>119162.48</v>
       </c>
     </row>
     <row r="6">
@@ -668,40 +900,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53609.39</v>
+        <v>54885.36</v>
       </c>
       <c r="C6" t="n">
-        <v>53649.92</v>
+        <v>54913.54</v>
       </c>
       <c r="D6" t="n">
-        <v>53615.01</v>
+        <v>54482.5</v>
       </c>
       <c r="E6" t="n">
-        <v>54868.94</v>
+        <v>54866.39</v>
       </c>
       <c r="F6" t="n">
-        <v>54828.93</v>
+        <v>54890.82</v>
       </c>
       <c r="G6" t="n">
-        <v>54883.61</v>
+        <v>54841.59</v>
       </c>
       <c r="H6" t="n">
-        <v>54895.99</v>
+        <v>57969.4</v>
       </c>
       <c r="I6" t="n">
-        <v>54873.48</v>
+        <v>55711.2</v>
       </c>
       <c r="J6" t="n">
-        <v>54894.82</v>
+        <v>67201.17999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>54919.77</v>
+        <v>67199.8</v>
       </c>
       <c r="L6" t="n">
-        <v>54877.22</v>
+        <v>72795.57000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>54885.36</v>
+        <v>80916.35000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>92329.53999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>92210.85000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>92179.17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>96138.16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>101387.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>106942.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>109409.12</v>
+      </c>
+      <c r="U6" t="n">
+        <v>114196.49</v>
+      </c>
+      <c r="V6" t="n">
+        <v>125379.47</v>
+      </c>
+      <c r="W6" t="n">
+        <v>134008.58</v>
+      </c>
+      <c r="X6" t="n">
+        <v>130855.86</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>130861.48</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>136275.26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>141476.07</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +985,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84343.23</v>
+        <v>84409.62</v>
       </c>
       <c r="C7" t="n">
-        <v>84284.61</v>
+        <v>84265.92999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>84280.94</v>
+        <v>83728.03</v>
       </c>
       <c r="E7" t="n">
-        <v>84190.60000000001</v>
+        <v>84320.05</v>
       </c>
       <c r="F7" t="n">
-        <v>84266.25999999999</v>
+        <v>84271.34</v>
       </c>
       <c r="G7" t="n">
-        <v>84412.87</v>
+        <v>84366.42</v>
       </c>
       <c r="H7" t="n">
-        <v>84192.89999999999</v>
+        <v>84278.27</v>
       </c>
       <c r="I7" t="n">
-        <v>84419.78</v>
+        <v>84287.60000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>84361.61</v>
+        <v>84334.63</v>
       </c>
       <c r="K7" t="n">
-        <v>84276.3</v>
+        <v>84291.39</v>
       </c>
       <c r="L7" t="n">
-        <v>84364.88</v>
+        <v>84233.55</v>
       </c>
       <c r="M7" t="n">
-        <v>84409.62</v>
+        <v>84213.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>84215.24000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>84253.24000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>84391.08</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>84162.77</v>
+      </c>
+      <c r="R7" t="n">
+        <v>84372.02</v>
+      </c>
+      <c r="S7" t="n">
+        <v>84313.02</v>
+      </c>
+      <c r="T7" t="n">
+        <v>84409.56</v>
+      </c>
+      <c r="U7" t="n">
+        <v>84302.64</v>
+      </c>
+      <c r="V7" t="n">
+        <v>84291.75999999999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>84239.24000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>84326.49000000001</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>84129.85000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>84219.25999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>84282.45</v>
       </c>
     </row>
     <row r="8">
@@ -754,1678 +1070,3350 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232798.17</v>
+        <v>165672.88</v>
       </c>
       <c r="C8" t="n">
-        <v>232958.18</v>
+        <v>165483.95</v>
       </c>
       <c r="D8" t="n">
-        <v>232694.66</v>
+        <v>164174.13</v>
       </c>
       <c r="E8" t="n">
-        <v>232783.49</v>
+        <v>165606.58</v>
       </c>
       <c r="F8" t="n">
-        <v>232478.79</v>
+        <v>165319.27</v>
       </c>
       <c r="G8" t="n">
-        <v>232725.56</v>
+        <v>165372.79</v>
       </c>
       <c r="H8" t="n">
-        <v>232987.47</v>
+        <v>165638.37</v>
       </c>
       <c r="I8" t="n">
-        <v>220707.13</v>
+        <v>165431.16</v>
       </c>
       <c r="J8" t="n">
-        <v>220750.19</v>
+        <v>165555.9</v>
       </c>
       <c r="K8" t="n">
-        <v>221044.62</v>
+        <v>165632.34</v>
       </c>
       <c r="L8" t="n">
-        <v>193541.04</v>
+        <v>165669.68</v>
       </c>
       <c r="M8" t="n">
-        <v>165672.88</v>
+        <v>165437.98</v>
+      </c>
+      <c r="N8" t="n">
+        <v>165528.77</v>
+      </c>
+      <c r="O8" t="n">
+        <v>165402.12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>165697.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>165663.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>165576.01</v>
+      </c>
+      <c r="S8" t="n">
+        <v>165342.69</v>
+      </c>
+      <c r="T8" t="n">
+        <v>165829.67</v>
+      </c>
+      <c r="U8" t="n">
+        <v>165324.77</v>
+      </c>
+      <c r="V8" t="n">
+        <v>165374.39</v>
+      </c>
+      <c r="W8" t="n">
+        <v>165717.79</v>
+      </c>
+      <c r="X8" t="n">
+        <v>165287.19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>165419.26</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>165298.91</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>165472.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6662.21</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4153.07</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4178.65</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4180.88</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4154.06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4150.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4177.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4158.73</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4172.09</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4169.92</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4170.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4158.3</v>
+          <t>Alpha Recursos Naturales</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>30006.56</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>30062.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>704406.59</v>
+        <v>4158.3</v>
       </c>
       <c r="C10" t="n">
-        <v>701809.37</v>
+        <v>4177.87</v>
       </c>
       <c r="D10" t="n">
-        <v>740380.04</v>
+        <v>4119.28</v>
       </c>
       <c r="E10" t="n">
-        <v>703849.01</v>
+        <v>4151.88</v>
       </c>
       <c r="F10" t="n">
-        <v>750499.6899999999</v>
+        <v>4167.66</v>
       </c>
       <c r="G10" t="n">
-        <v>720826.62</v>
+        <v>4164.95</v>
       </c>
       <c r="H10" t="n">
-        <v>719355.95</v>
+        <v>4178.64</v>
       </c>
       <c r="I10" t="n">
-        <v>719369.5699999999</v>
+        <v>4164.53</v>
       </c>
       <c r="J10" t="n">
-        <v>738104.54</v>
+        <v>4155.8</v>
       </c>
       <c r="K10" t="n">
-        <v>766718.53</v>
+        <v>4944.89</v>
       </c>
       <c r="L10" t="n">
-        <v>808987.73</v>
+        <v>4960.37</v>
       </c>
       <c r="M10" t="n">
-        <v>791061.99</v>
+        <v>4948.29</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4942.82</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4969.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4960.97</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4944.79</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4976.61</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4978.48</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4969.72</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4968.59</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4960.03</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4961.48</v>
+      </c>
+      <c r="X10" t="n">
+        <v>630.35</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>606.51</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>609.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>642.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10072.37</v>
+        <v>791061.99</v>
       </c>
       <c r="C11" t="n">
-        <v>10064.37</v>
+        <v>747810.99</v>
       </c>
       <c r="D11" t="n">
-        <v>10079.11</v>
+        <v>749103.51</v>
       </c>
       <c r="E11" t="n">
-        <v>10079.87</v>
+        <v>721942.17</v>
       </c>
       <c r="F11" t="n">
-        <v>10048.91</v>
+        <v>708040.05</v>
       </c>
       <c r="G11" t="n">
-        <v>10048</v>
+        <v>724971.55</v>
       </c>
       <c r="H11" t="n">
-        <v>10041.26</v>
+        <v>690727.2</v>
       </c>
       <c r="I11" t="n">
-        <v>10045.9</v>
+        <v>668063.12</v>
       </c>
       <c r="J11" t="n">
-        <v>10022</v>
+        <v>678028.0699999999</v>
       </c>
       <c r="K11" t="n">
-        <v>1198.98</v>
+        <v>678827.99</v>
       </c>
       <c r="L11" t="n">
-        <v>1198.25</v>
+        <v>679258.6800000001</v>
       </c>
       <c r="M11" t="n">
-        <v>1198.92</v>
+        <v>678321.26</v>
+      </c>
+      <c r="N11" t="n">
+        <v>664232.1800000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>672979.46</v>
+      </c>
+      <c r="P11" t="n">
+        <v>671207.61</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>684399.0699999999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>668689.85</v>
+      </c>
+      <c r="S11" t="n">
+        <v>695040.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>717885.42</v>
+      </c>
+      <c r="U11" t="n">
+        <v>698168.76</v>
+      </c>
+      <c r="V11" t="n">
+        <v>684894.78</v>
+      </c>
+      <c r="W11" t="n">
+        <v>684382.33</v>
+      </c>
+      <c r="X11" t="n">
+        <v>699996.34</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>735399.99</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>735052.26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>757922.79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16812.59</v>
+        <v>1198.92</v>
       </c>
       <c r="C12" t="n">
-        <v>16817.52</v>
+        <v>1197.67</v>
       </c>
       <c r="D12" t="n">
-        <v>16814.75</v>
+        <v>1190.05</v>
       </c>
       <c r="E12" t="n">
-        <v>16814.28</v>
+        <v>1199.21</v>
       </c>
       <c r="F12" t="n">
-        <v>16824.25</v>
+        <v>1198.99</v>
       </c>
       <c r="G12" t="n">
-        <v>16818.99</v>
+        <v>1196.78</v>
       </c>
       <c r="H12" t="n">
-        <v>16821.44</v>
+        <v>1199.14</v>
       </c>
       <c r="I12" t="n">
-        <v>16826.33</v>
+        <v>1199.03</v>
       </c>
       <c r="J12" t="n">
-        <v>16821.42</v>
+        <v>1198.78</v>
       </c>
       <c r="K12" t="n">
-        <v>16808.5</v>
+        <v>1197.13</v>
       </c>
       <c r="L12" t="n">
-        <v>16816.87</v>
+        <v>9697.73</v>
       </c>
       <c r="M12" t="n">
-        <v>16819.19</v>
+        <v>9706.690000000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9697.219999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3268.73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3056.84</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3054.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3058.04</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3058.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3063.14</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3058.24</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3055.04</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3054.63</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3057.86</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3055.91</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3054.7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2940.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208523.69</v>
+        <v>16819.19</v>
       </c>
       <c r="C13" t="n">
-        <v>176487.81</v>
+        <v>16826.97</v>
       </c>
       <c r="D13" t="n">
-        <v>159566.2</v>
+        <v>16696.75</v>
       </c>
       <c r="E13" t="n">
-        <v>159509.89</v>
+        <v>16808.94</v>
       </c>
       <c r="F13" t="n">
-        <v>169490.88</v>
+        <v>16815.56</v>
       </c>
       <c r="G13" t="n">
-        <v>179522.4</v>
+        <v>16811.47</v>
       </c>
       <c r="H13" t="n">
-        <v>188336.34</v>
+        <v>16822.88</v>
       </c>
       <c r="I13" t="n">
-        <v>188431.97</v>
+        <v>16818.04</v>
       </c>
       <c r="J13" t="n">
-        <v>188347.3</v>
+        <v>16815.94</v>
       </c>
       <c r="K13" t="n">
-        <v>194332.38</v>
+        <v>16815.66</v>
       </c>
       <c r="L13" t="n">
-        <v>194485.12</v>
+        <v>16827.38</v>
       </c>
       <c r="M13" t="n">
-        <v>194264.12</v>
+        <v>16819.19</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16812.82</v>
+      </c>
+      <c r="O13" t="n">
+        <v>16812.69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>16820.83</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>16808.45</v>
+      </c>
+      <c r="R13" t="n">
+        <v>16819.65</v>
+      </c>
+      <c r="S13" t="n">
+        <v>16827.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>16860.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>16822.07</v>
+      </c>
+      <c r="V13" t="n">
+        <v>16819.74</v>
+      </c>
+      <c r="W13" t="n">
+        <v>16813.59</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16813.09</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16825.49</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>16807.81</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16829.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59095.22</v>
+        <v>194264.12</v>
       </c>
       <c r="C14" t="n">
-        <v>66018.27</v>
+        <v>204281.35</v>
       </c>
       <c r="D14" t="n">
-        <v>68472.66</v>
+        <v>198708.93</v>
       </c>
       <c r="E14" t="n">
-        <v>77746.60000000001</v>
+        <v>187642.83</v>
       </c>
       <c r="F14" t="n">
-        <v>87695.03999999999</v>
+        <v>187368.68</v>
       </c>
       <c r="G14" t="n">
-        <v>87716.12</v>
+        <v>190891.85</v>
       </c>
       <c r="H14" t="n">
-        <v>91015.99000000001</v>
+        <v>211216.42</v>
       </c>
       <c r="I14" t="n">
-        <v>90973.95</v>
+        <v>211173.41</v>
       </c>
       <c r="J14" t="n">
-        <v>90971.59</v>
+        <v>211004.52</v>
       </c>
       <c r="K14" t="n">
-        <v>90976.16</v>
+        <v>217078.9</v>
       </c>
       <c r="L14" t="n">
-        <v>90979.41</v>
+        <v>223000.63</v>
       </c>
       <c r="M14" t="n">
-        <v>91005.06</v>
+        <v>240044.61</v>
+      </c>
+      <c r="N14" t="n">
+        <v>248507.59</v>
+      </c>
+      <c r="O14" t="n">
+        <v>254361.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>262815.53</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>292009.28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>294471.85</v>
+      </c>
+      <c r="S14" t="n">
+        <v>294714.32</v>
+      </c>
+      <c r="T14" t="n">
+        <v>321354.62</v>
+      </c>
+      <c r="U14" t="n">
+        <v>304343.85</v>
+      </c>
+      <c r="V14" t="n">
+        <v>308661.11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>314677.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>323696.05</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>287936.87</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>305244.46</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>320186.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>213757.81</v>
+        <v>91005.06</v>
       </c>
       <c r="C15" t="n">
-        <v>213795.36</v>
+        <v>91053.16</v>
       </c>
       <c r="D15" t="n">
-        <v>213735.11</v>
+        <v>90379.11</v>
       </c>
       <c r="E15" t="n">
-        <v>213813.45</v>
+        <v>91050.83</v>
       </c>
       <c r="F15" t="n">
-        <v>213711.99</v>
+        <v>90982.11</v>
       </c>
       <c r="G15" t="n">
-        <v>212476.9</v>
+        <v>91000.42999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>212484.5</v>
+        <v>89108.64</v>
       </c>
       <c r="I15" t="n">
-        <v>212472.22</v>
+        <v>89145.17999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>212526.75</v>
+        <v>89140.56</v>
       </c>
       <c r="K15" t="n">
-        <v>212465.16</v>
+        <v>89155.50999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>212510.13</v>
+        <v>89122.10000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>212457.82</v>
+        <v>90756.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>95741.91</v>
+      </c>
+      <c r="O15" t="n">
+        <v>99568.77</v>
+      </c>
+      <c r="P15" t="n">
+        <v>103643.69</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>115123.78</v>
+      </c>
+      <c r="R15" t="n">
+        <v>119083.87</v>
+      </c>
+      <c r="S15" t="n">
+        <v>122189.69</v>
+      </c>
+      <c r="T15" t="n">
+        <v>121690.16</v>
+      </c>
+      <c r="U15" t="n">
+        <v>116832.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>121782.36</v>
+      </c>
+      <c r="W15" t="n">
+        <v>127574.22</v>
+      </c>
+      <c r="X15" t="n">
+        <v>138553.98</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>135939.21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>128553.41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>125394.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1284814.59</v>
+        <v>212457.82</v>
       </c>
       <c r="C16" t="n">
-        <v>1272281.84</v>
+        <v>212371.6</v>
       </c>
       <c r="D16" t="n">
-        <v>1269199.99</v>
+        <v>211015.92</v>
       </c>
       <c r="E16" t="n">
-        <v>1261907.02</v>
+        <v>212494.75</v>
       </c>
       <c r="F16" t="n">
-        <v>1253639.28</v>
+        <v>212444.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1242449.71</v>
+        <v>212372.14</v>
       </c>
       <c r="H16" t="n">
-        <v>1235574.8</v>
+        <v>212497.51</v>
       </c>
       <c r="I16" t="n">
-        <v>1224203.1</v>
+        <v>212507.25</v>
       </c>
       <c r="J16" t="n">
-        <v>1213742.83</v>
+        <v>212526.46</v>
       </c>
       <c r="K16" t="n">
-        <v>1204732.51</v>
+        <v>212361.91</v>
       </c>
       <c r="L16" t="n">
-        <v>1201539.52</v>
+        <v>215002.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1187866.49</v>
+        <v>214999.88</v>
+      </c>
+      <c r="N16" t="n">
+        <v>214893.15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>209977.98</v>
+      </c>
+      <c r="P16" t="n">
+        <v>207301.04</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>200060.66</v>
+      </c>
+      <c r="R16" t="n">
+        <v>200088.14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>200131.06</v>
+      </c>
+      <c r="T16" t="n">
+        <v>200839.99</v>
+      </c>
+      <c r="U16" t="n">
+        <v>200049.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>200204.52</v>
+      </c>
+      <c r="W16" t="n">
+        <v>200051.98</v>
+      </c>
+      <c r="X16" t="n">
+        <v>200207.16</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>200069.9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>184284.89</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>184309.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12520.43</v>
+        <v>1187866.49</v>
       </c>
       <c r="C17" t="n">
-        <v>12520.97</v>
+        <v>1181002.74</v>
       </c>
       <c r="D17" t="n">
-        <v>12522.36</v>
+        <v>1161494.27</v>
       </c>
       <c r="E17" t="n">
-        <v>12522.45</v>
+        <v>1157008.03</v>
       </c>
       <c r="F17" t="n">
-        <v>12523.21</v>
+        <v>1141906.87</v>
       </c>
       <c r="G17" t="n">
-        <v>12518.33</v>
+        <v>1129375.48</v>
       </c>
       <c r="H17" t="n">
-        <v>12518.52</v>
+        <v>1129396.28</v>
       </c>
       <c r="I17" t="n">
-        <v>12520.6</v>
+        <v>1129794.9</v>
       </c>
       <c r="J17" t="n">
-        <v>12521.17</v>
+        <v>1129401.08</v>
       </c>
       <c r="K17" t="n">
-        <v>12523.8</v>
+        <v>1105112.12</v>
       </c>
       <c r="L17" t="n">
-        <v>12518.05</v>
+        <v>1095900.55</v>
       </c>
       <c r="M17" t="n">
-        <v>12521.51</v>
+        <v>1064696.3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1064880.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1056967.32</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1050783.21</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1050372.65</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1050639.52</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1050396.58</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1049336.13</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1042439.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1045451.93</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1045729.16</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1048360.87</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1048618.57</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1048687.41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1047602.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>439565.08</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>12521.51</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12519.81</v>
+      </c>
       <c r="D18" t="n">
-        <v>439678</v>
+        <v>12428.52</v>
       </c>
       <c r="E18" t="n">
-        <v>439705.29</v>
+        <v>12522.38</v>
       </c>
       <c r="F18" t="n">
-        <v>439542.3</v>
+        <v>12518.93</v>
       </c>
       <c r="G18" t="n">
-        <v>439638.65</v>
+        <v>10520.76</v>
       </c>
       <c r="H18" t="n">
-        <v>439680.78</v>
+        <v>10523.82</v>
       </c>
       <c r="I18" t="n">
-        <v>439842.91</v>
+        <v>10518</v>
       </c>
       <c r="J18" t="n">
-        <v>427648.52</v>
+        <v>10523.45</v>
       </c>
       <c r="K18" t="n">
-        <v>427627.66</v>
+        <v>10520.16</v>
       </c>
       <c r="L18" t="n">
-        <v>427794.37</v>
+        <v>10521.99</v>
       </c>
       <c r="M18" t="n">
-        <v>427299.7</v>
+        <v>10518.69</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10521.39</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10519.61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10524.37</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10524.02</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10522.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10520.52</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10552.82</v>
+      </c>
+      <c r="U18" t="n">
+        <v>13919.77</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13918.85</v>
+      </c>
+      <c r="W18" t="n">
+        <v>13920.67</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13922.48</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13919.07</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13921.81</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13917.67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174898.74</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>427299.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>427675.86</v>
+      </c>
       <c r="D19" t="n">
-        <v>175064.54</v>
+        <v>424654.06</v>
       </c>
       <c r="E19" t="n">
-        <v>174910.21</v>
+        <v>427287.66</v>
       </c>
       <c r="F19" t="n">
-        <v>175067.8</v>
+        <v>427491.44</v>
       </c>
       <c r="G19" t="n">
-        <v>175013.93</v>
+        <v>412252.95</v>
       </c>
       <c r="H19" t="n">
-        <v>175127.45</v>
+        <v>412578.49</v>
       </c>
       <c r="I19" t="n">
-        <v>175090.63</v>
+        <v>412699.27</v>
       </c>
       <c r="J19" t="n">
-        <v>174839.28</v>
+        <v>412656.33</v>
       </c>
       <c r="K19" t="n">
-        <v>181656.65</v>
+        <v>412259.66</v>
       </c>
       <c r="L19" t="n">
-        <v>184886.83</v>
+        <v>412308.36</v>
       </c>
       <c r="M19" t="n">
-        <v>184982.44</v>
+        <v>412645.71</v>
+      </c>
+      <c r="N19" t="n">
+        <v>412551.81</v>
+      </c>
+      <c r="O19" t="n">
+        <v>387268.96</v>
+      </c>
+      <c r="P19" t="n">
+        <v>387144.46</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>387232.48</v>
+      </c>
+      <c r="R19" t="n">
+        <v>387154.46</v>
+      </c>
+      <c r="S19" t="n">
+        <v>387118.01</v>
+      </c>
+      <c r="T19" t="n">
+        <v>388172.67</v>
+      </c>
+      <c r="U19" t="n">
+        <v>387002.98</v>
+      </c>
+      <c r="V19" t="n">
+        <v>315041.47</v>
+      </c>
+      <c r="W19" t="n">
+        <v>314742.19</v>
+      </c>
+      <c r="X19" t="n">
+        <v>314652.61</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>315096.12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>382842.49</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>456611.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61968.7</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>184982.44</v>
+      </c>
+      <c r="C20" t="n">
+        <v>184842.82</v>
+      </c>
       <c r="D20" t="n">
-        <v>58139.82</v>
+        <v>183505.76</v>
       </c>
       <c r="E20" t="n">
-        <v>58172.56</v>
+        <v>184972.45</v>
       </c>
       <c r="F20" t="n">
-        <v>58193.13</v>
+        <v>184813.07</v>
       </c>
       <c r="G20" t="n">
-        <v>58128.98</v>
+        <v>199926.6</v>
       </c>
       <c r="H20" t="n">
-        <v>58181.49</v>
+        <v>184455.5</v>
       </c>
       <c r="I20" t="n">
-        <v>58127.53</v>
+        <v>184514.01</v>
       </c>
       <c r="J20" t="n">
-        <v>58148.11</v>
+        <v>184477.25</v>
       </c>
       <c r="K20" t="n">
-        <v>58187.72</v>
+        <v>184312.01</v>
       </c>
       <c r="L20" t="n">
-        <v>58161.04</v>
+        <v>184377.92</v>
       </c>
       <c r="M20" t="n">
-        <v>58194.27</v>
+        <v>184575.27</v>
+      </c>
+      <c r="N20" t="n">
+        <v>184588.64</v>
+      </c>
+      <c r="O20" t="n">
+        <v>209743.06</v>
+      </c>
+      <c r="P20" t="n">
+        <v>209794.77</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>209855.86</v>
+      </c>
+      <c r="R20" t="n">
+        <v>209848.07</v>
+      </c>
+      <c r="S20" t="n">
+        <v>244560.82</v>
+      </c>
+      <c r="T20" t="n">
+        <v>245269.59</v>
+      </c>
+      <c r="U20" t="n">
+        <v>262187.92</v>
+      </c>
+      <c r="V20" t="n">
+        <v>229234.31</v>
+      </c>
+      <c r="W20" t="n">
+        <v>229416.58</v>
+      </c>
+      <c r="X20" t="n">
+        <v>229394.93</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>229402.18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>270509.05</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>270486.87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.74</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>58194.27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>58119.16</v>
+      </c>
       <c r="D21" t="n">
-        <v>167.69</v>
+        <v>57696.9</v>
       </c>
       <c r="E21" t="n">
-        <v>169.38</v>
+        <v>58146.07</v>
       </c>
       <c r="F21" t="n">
-        <v>167.21</v>
+        <v>58134.03</v>
       </c>
       <c r="G21" t="n">
-        <v>169.47</v>
+        <v>68021.27</v>
       </c>
       <c r="H21" t="n">
-        <v>169.33</v>
+        <v>67988.24000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>173.04</v>
+        <v>68028.50999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>168.5</v>
+        <v>68040.34</v>
       </c>
       <c r="K21" t="n">
-        <v>168.63</v>
+        <v>67959.28999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>171.31</v>
+        <v>68031.14999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>168.41</v>
+        <v>67999.82000000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>67955.02</v>
+      </c>
+      <c r="O21" t="n">
+        <v>68050.03</v>
+      </c>
+      <c r="P21" t="n">
+        <v>68049.53999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>74914.49000000001</v>
+      </c>
+      <c r="R21" t="n">
+        <v>81829.57000000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>81792.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>81782.86</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81699.75999999999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>81727.66</v>
+      </c>
+      <c r="W21" t="n">
+        <v>81798.84</v>
+      </c>
+      <c r="X21" t="n">
+        <v>81720.14</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>72419.8</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>72437.77</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>72445.94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558129.01</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>168.41</v>
+      </c>
+      <c r="C22" t="n">
+        <v>172.34</v>
+      </c>
       <c r="D22" t="n">
-        <v>523848.18</v>
+        <v>166.53</v>
       </c>
       <c r="E22" t="n">
-        <v>521541.45</v>
+        <v>172.55</v>
       </c>
       <c r="F22" t="n">
-        <v>509160.87</v>
+        <v>166.82</v>
       </c>
       <c r="G22" t="n">
-        <v>496636.01</v>
+        <v>170.12</v>
       </c>
       <c r="H22" t="n">
-        <v>496638.72</v>
+        <v>169.94</v>
       </c>
       <c r="I22" t="n">
-        <v>496762.32</v>
+        <v>170.07</v>
       </c>
       <c r="J22" t="n">
-        <v>476463.88</v>
+        <v>167.79</v>
       </c>
       <c r="K22" t="n">
-        <v>468093.21</v>
+        <v>171.57</v>
       </c>
       <c r="L22" t="n">
-        <v>430016.52</v>
+        <v>172.2</v>
       </c>
       <c r="M22" t="n">
-        <v>430077.14</v>
+        <v>167.67</v>
+      </c>
+      <c r="N22" t="n">
+        <v>168.46</v>
+      </c>
+      <c r="O22" t="n">
+        <v>171.27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>167.15</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>166.95</v>
+      </c>
+      <c r="R22" t="n">
+        <v>170.13</v>
+      </c>
+      <c r="S22" t="n">
+        <v>172.68</v>
+      </c>
+      <c r="T22" t="n">
+        <v>167.08</v>
+      </c>
+      <c r="U22" t="n">
+        <v>169.45</v>
+      </c>
+      <c r="V22" t="n">
+        <v>167.37</v>
+      </c>
+      <c r="W22" t="n">
+        <v>169.84</v>
+      </c>
+      <c r="X22" t="n">
+        <v>171.72</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>168.85</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>173.15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>168.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390493.53</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>430077.14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>430005.77</v>
+      </c>
       <c r="D23" t="n">
-        <v>372231.98</v>
+        <v>427120.52</v>
       </c>
       <c r="E23" t="n">
-        <v>365106.96</v>
+        <v>430090.47</v>
       </c>
       <c r="F23" t="n">
-        <v>352325.65</v>
+        <v>430242.31</v>
       </c>
       <c r="G23" t="n">
-        <v>352371.6</v>
+        <v>442986.74</v>
       </c>
       <c r="H23" t="n">
-        <v>352494.41</v>
+        <v>442847.63</v>
       </c>
       <c r="I23" t="n">
-        <v>352548.47</v>
+        <v>442916.25</v>
       </c>
       <c r="J23" t="n">
-        <v>352684.27</v>
+        <v>442858.92</v>
       </c>
       <c r="K23" t="n">
-        <v>352618.32</v>
+        <v>454837.15</v>
       </c>
       <c r="L23" t="n">
-        <v>352072.31</v>
+        <v>455055.23</v>
       </c>
       <c r="M23" t="n">
-        <v>352469.9</v>
+        <v>454863.42</v>
+      </c>
+      <c r="N23" t="n">
+        <v>454779.18</v>
+      </c>
+      <c r="O23" t="n">
+        <v>455029.79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>454988.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>468722.78</v>
+      </c>
+      <c r="R23" t="n">
+        <v>482521.56</v>
+      </c>
+      <c r="S23" t="n">
+        <v>482412.15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>493517.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>493445.26</v>
+      </c>
+      <c r="V23" t="n">
+        <v>493527.67</v>
+      </c>
+      <c r="W23" t="n">
+        <v>493611.34</v>
+      </c>
+      <c r="X23" t="n">
+        <v>493621.59</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>493337.49</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>486375.09</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>486058.95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106145.82</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>352469.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>352142.21</v>
+      </c>
       <c r="D24" t="n">
-        <v>106377.8</v>
+        <v>349704.2</v>
       </c>
       <c r="E24" t="n">
-        <v>105901.65</v>
+        <v>352521.65</v>
       </c>
       <c r="F24" t="n">
-        <v>105980.39</v>
+        <v>352260.7</v>
       </c>
       <c r="G24" t="n">
-        <v>105828.5</v>
+        <v>372035.73</v>
       </c>
       <c r="H24" t="n">
-        <v>105997.13</v>
+        <v>371975.55</v>
       </c>
       <c r="I24" t="n">
-        <v>106403.23</v>
+        <v>371851.14</v>
       </c>
       <c r="J24" t="n">
-        <v>106048.35</v>
+        <v>371917.47</v>
       </c>
       <c r="K24" t="n">
-        <v>106239.63</v>
+        <v>372229.66</v>
       </c>
       <c r="L24" t="n">
-        <v>106305.48</v>
+        <v>371914.93</v>
       </c>
       <c r="M24" t="n">
-        <v>105958.31</v>
+        <v>371950.17</v>
+      </c>
+      <c r="N24" t="n">
+        <v>425641.02</v>
+      </c>
+      <c r="O24" t="n">
+        <v>426093.59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>425543.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>425811.71</v>
+      </c>
+      <c r="R24" t="n">
+        <v>439458.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>439622.41</v>
+      </c>
+      <c r="T24" t="n">
+        <v>439730.95</v>
+      </c>
+      <c r="U24" t="n">
+        <v>439353.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>446877.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>446798</v>
+      </c>
+      <c r="X24" t="n">
+        <v>447453.36</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>447292.46</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>447237.39</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>446890.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175952.1</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>105958.31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>106431.84</v>
+      </c>
       <c r="D25" t="n">
-        <v>167897.03</v>
+        <v>105300.72</v>
       </c>
       <c r="E25" t="n">
-        <v>168737.74</v>
+        <v>106331.37</v>
       </c>
       <c r="F25" t="n">
-        <v>173337.8</v>
+        <v>105959.43</v>
       </c>
       <c r="G25" t="n">
-        <v>170046.94</v>
+        <v>114041.93</v>
       </c>
       <c r="H25" t="n">
-        <v>169928.24</v>
+        <v>114037.52</v>
       </c>
       <c r="I25" t="n">
-        <v>161849.39</v>
+        <v>114103.37</v>
       </c>
       <c r="J25" t="n">
-        <v>159117.06</v>
+        <v>114084.37</v>
       </c>
       <c r="K25" t="n">
-        <v>152376.46</v>
+        <v>114054.22</v>
       </c>
       <c r="L25" t="n">
-        <v>148351.64</v>
+        <v>114153.01</v>
       </c>
       <c r="M25" t="n">
-        <v>148268.77</v>
+        <v>114126.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>79023.67999999999</v>
+      </c>
+      <c r="O25" t="n">
+        <v>79093.11</v>
+      </c>
+      <c r="P25" t="n">
+        <v>79305.38</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>79162.49000000001</v>
+      </c>
+      <c r="R25" t="n">
+        <v>79272.55</v>
+      </c>
+      <c r="S25" t="n">
+        <v>79191.59</v>
+      </c>
+      <c r="T25" t="n">
+        <v>78861.12</v>
+      </c>
+      <c r="U25" t="n">
+        <v>79261.67999999999</v>
+      </c>
+      <c r="V25" t="n">
+        <v>79268.19</v>
+      </c>
+      <c r="W25" t="n">
+        <v>78960.17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>79158.67999999999</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>79020.96000000001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>79173.49000000001</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>79095.89999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>173673.42</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>148268.77</v>
+      </c>
+      <c r="C26" t="n">
+        <v>148250.93</v>
+      </c>
       <c r="D26" t="n">
-        <v>171684.12</v>
+        <v>147399.14</v>
       </c>
       <c r="E26" t="n">
-        <v>160320.36</v>
+        <v>148192.75</v>
       </c>
       <c r="F26" t="n">
-        <v>159091.01</v>
+        <v>148492.01</v>
       </c>
       <c r="G26" t="n">
-        <v>157683.01</v>
+        <v>155505.67</v>
       </c>
       <c r="H26" t="n">
-        <v>157518.77</v>
+        <v>163761.5</v>
       </c>
       <c r="I26" t="n">
-        <v>154043.22</v>
+        <v>189408.37</v>
       </c>
       <c r="J26" t="n">
-        <v>149243.77</v>
+        <v>189329.88</v>
       </c>
       <c r="K26" t="n">
-        <v>144357.4</v>
+        <v>190877.84</v>
       </c>
       <c r="L26" t="n">
-        <v>140557.79</v>
+        <v>188521.59</v>
       </c>
       <c r="M26" t="n">
-        <v>140689.51</v>
+        <v>189496.16</v>
+      </c>
+      <c r="N26" t="n">
+        <v>190176.29</v>
+      </c>
+      <c r="O26" t="n">
+        <v>195776.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>204003.74</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>212501.11</v>
+      </c>
+      <c r="R26" t="n">
+        <v>224425.79</v>
+      </c>
+      <c r="S26" t="n">
+        <v>225805.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>217259.15</v>
+      </c>
+      <c r="U26" t="n">
+        <v>218363.81</v>
+      </c>
+      <c r="V26" t="n">
+        <v>228987.66</v>
+      </c>
+      <c r="W26" t="n">
+        <v>264705.31</v>
+      </c>
+      <c r="X26" t="n">
+        <v>280667.01</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>260564.91</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>270157.18</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>259786.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>215351.45</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>140689.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>140847.98</v>
+      </c>
       <c r="D27" t="n">
-        <v>199185.43</v>
+        <v>139754.09</v>
       </c>
       <c r="E27" t="n">
-        <v>308615.96</v>
+        <v>137286.18</v>
       </c>
       <c r="F27" t="n">
-        <v>308755.43</v>
+        <v>139854.28</v>
       </c>
       <c r="G27" t="n">
-        <v>310819.31</v>
+        <v>145967.24</v>
       </c>
       <c r="H27" t="n">
-        <v>311053.9</v>
+        <v>155267.9</v>
       </c>
       <c r="I27" t="n">
-        <v>309966.34</v>
+        <v>174632.12</v>
       </c>
       <c r="J27" t="n">
-        <v>301069.07</v>
+        <v>184360.32</v>
       </c>
       <c r="K27" t="n">
-        <v>298800.56</v>
+        <v>184424.26</v>
       </c>
       <c r="L27" t="n">
-        <v>286083.95</v>
+        <v>186139.05</v>
       </c>
       <c r="M27" t="n">
-        <v>280309.12</v>
+        <v>189356.71</v>
+      </c>
+      <c r="N27" t="n">
+        <v>191691.78</v>
+      </c>
+      <c r="O27" t="n">
+        <v>193987.94</v>
+      </c>
+      <c r="P27" t="n">
+        <v>202787.96</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>211248.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>211195.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>211243.38</v>
+      </c>
+      <c r="T27" t="n">
+        <v>209010.19</v>
+      </c>
+      <c r="U27" t="n">
+        <v>205234.76</v>
+      </c>
+      <c r="V27" t="n">
+        <v>207605.59</v>
+      </c>
+      <c r="W27" t="n">
+        <v>244964.84</v>
+      </c>
+      <c r="X27" t="n">
+        <v>253407.21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>238238.93</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>254190.97</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>254196.36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95490.92999999999</v>
+        <v>280309.12</v>
       </c>
       <c r="C28" t="n">
-        <v>100237.12</v>
+        <v>280221.93</v>
       </c>
       <c r="D28" t="n">
-        <v>103219.71</v>
+        <v>277168.76</v>
       </c>
       <c r="E28" t="n">
-        <v>106095.99</v>
+        <v>299734.97</v>
       </c>
       <c r="F28" t="n">
-        <v>107280.25</v>
+        <v>325270.2</v>
       </c>
       <c r="G28" t="n">
-        <v>107366.52</v>
+        <v>340037.44</v>
       </c>
       <c r="H28" t="n">
-        <v>107231.02</v>
+        <v>334472.66</v>
       </c>
       <c r="I28" t="n">
-        <v>107373.18</v>
+        <v>351923.11</v>
       </c>
       <c r="J28" t="n">
-        <v>107308.36</v>
+        <v>364756.05</v>
       </c>
       <c r="K28" t="n">
-        <v>107141.03</v>
+        <v>370809.92</v>
       </c>
       <c r="L28" t="n">
-        <v>107131.5</v>
+        <v>384034.24</v>
       </c>
       <c r="M28" t="n">
-        <v>107224.37</v>
+        <v>415577.35</v>
+      </c>
+      <c r="N28" t="n">
+        <v>416154.32</v>
+      </c>
+      <c r="O28" t="n">
+        <v>421716.66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>421015.07</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>459418.6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>476467.04</v>
+      </c>
+      <c r="S28" t="n">
+        <v>456275.87</v>
+      </c>
+      <c r="T28" t="n">
+        <v>451424.73</v>
+      </c>
+      <c r="U28" t="n">
+        <v>456396.69</v>
+      </c>
+      <c r="V28" t="n">
+        <v>491918.58</v>
+      </c>
+      <c r="W28" t="n">
+        <v>507541.57</v>
+      </c>
+      <c r="X28" t="n">
+        <v>531543.64</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>478182.78</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>488123.54</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>449582.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87729.00999999999</v>
+        <v>107224.37</v>
       </c>
       <c r="C29" t="n">
-        <v>87721.81</v>
+        <v>105393.02</v>
       </c>
       <c r="D29" t="n">
-        <v>62722.62</v>
+        <v>104712.95</v>
       </c>
       <c r="E29" t="n">
-        <v>62643.17</v>
+        <v>100366.27</v>
       </c>
       <c r="F29" t="n">
-        <v>62721.62</v>
+        <v>100253.05</v>
       </c>
       <c r="G29" t="n">
-        <v>62636.29</v>
+        <v>98423.75999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>101492.09</v>
+        <v>98451.03999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>101534.83</v>
+        <v>104950.03</v>
       </c>
       <c r="J29" t="n">
-        <v>101430.15</v>
+        <v>106586.76</v>
       </c>
       <c r="K29" t="n">
-        <v>101558.86</v>
+        <v>106544.1</v>
       </c>
       <c r="L29" t="n">
-        <v>101524.62</v>
+        <v>106538.95</v>
       </c>
       <c r="M29" t="n">
-        <v>101451.77</v>
+        <v>106602.84</v>
+      </c>
+      <c r="N29" t="n">
+        <v>109440.51</v>
+      </c>
+      <c r="O29" t="n">
+        <v>109256.18</v>
+      </c>
+      <c r="P29" t="n">
+        <v>116682.32</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>119662.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>123639.33</v>
+      </c>
+      <c r="S29" t="n">
+        <v>122131.86</v>
+      </c>
+      <c r="T29" t="n">
+        <v>122044.97</v>
+      </c>
+      <c r="U29" t="n">
+        <v>122290.99</v>
+      </c>
+      <c r="V29" t="n">
+        <v>128066.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>141451.64</v>
+      </c>
+      <c r="X29" t="n">
+        <v>144475.36</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>145496.13</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>147544.04</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>145523.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1976674.58</v>
+        <v>101451.77</v>
       </c>
       <c r="C30" t="n">
-        <v>1928360.97</v>
+        <v>101470.48</v>
       </c>
       <c r="D30" t="n">
-        <v>1927707.25</v>
+        <v>100776.39</v>
       </c>
       <c r="E30" t="n">
-        <v>1927326.51</v>
+        <v>101529.87</v>
       </c>
       <c r="F30" t="n">
-        <v>1927886.93</v>
+        <v>101549.31</v>
       </c>
       <c r="G30" t="n">
-        <v>1927788.31</v>
+        <v>101485.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1928825.94</v>
+        <v>101460.35</v>
       </c>
       <c r="I30" t="n">
-        <v>1928677.74</v>
+        <v>101507.99</v>
       </c>
       <c r="J30" t="n">
-        <v>2000787.42</v>
+        <v>101503.23</v>
       </c>
       <c r="K30" t="n">
-        <v>2000058.94</v>
+        <v>101432.56</v>
       </c>
       <c r="L30" t="n">
-        <v>1999489.08</v>
+        <v>101478.74</v>
       </c>
       <c r="M30" t="n">
-        <v>2000367.93</v>
+        <v>101545.2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>101447.21</v>
+      </c>
+      <c r="O30" t="n">
+        <v>101441.66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>101505.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>101490.84</v>
+      </c>
+      <c r="R30" t="n">
+        <v>101529.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>101458.84</v>
+      </c>
+      <c r="T30" t="n">
+        <v>101472.08</v>
+      </c>
+      <c r="U30" t="n">
+        <v>101454.27</v>
+      </c>
+      <c r="V30" t="n">
+        <v>101519.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>101509.41</v>
+      </c>
+      <c r="X30" t="n">
+        <v>101549.14</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>101538.04</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>101536.78</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>101509.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45747.36</v>
+        <v>2000367.93</v>
       </c>
       <c r="C31" t="n">
-        <v>45714.74</v>
+        <v>2000360.74</v>
       </c>
       <c r="D31" t="n">
-        <v>35730.41</v>
+        <v>1985306.17</v>
       </c>
       <c r="E31" t="n">
-        <v>35726.19</v>
+        <v>2000737.27</v>
       </c>
       <c r="F31" t="n">
-        <v>35730.85</v>
+        <v>1799967.29</v>
       </c>
       <c r="G31" t="n">
-        <v>35695.19</v>
+        <v>1799804.16</v>
       </c>
       <c r="H31" t="n">
-        <v>35706.66</v>
+        <v>1800130.44</v>
       </c>
       <c r="I31" t="n">
-        <v>35759.11</v>
+        <v>1800446.15</v>
       </c>
       <c r="J31" t="n">
-        <v>35741.39</v>
+        <v>1899901.24</v>
       </c>
       <c r="K31" t="n">
-        <v>35722.53</v>
+        <v>1900054.15</v>
       </c>
       <c r="L31" t="n">
-        <v>35728.72</v>
+        <v>1899231.11</v>
       </c>
       <c r="M31" t="n">
-        <v>31211.29</v>
+        <v>1999927.67</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2200340.79</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2200727.04</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2200806.77</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2200339.96</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2199359.71</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2199388.71</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2199140.7</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2150561.52</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2150298.92</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2149868.21</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2149574.26</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2150103.94</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1950144.26</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1874932.43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4558.05</v>
+        <v>31211.29</v>
       </c>
       <c r="C32" t="n">
-        <v>4555.44</v>
+        <v>31209.59</v>
       </c>
       <c r="D32" t="n">
-        <v>4554.66</v>
+        <v>31004.09</v>
       </c>
       <c r="E32" t="n">
-        <v>4557.09</v>
+        <v>31214.28</v>
       </c>
       <c r="F32" t="n">
-        <v>4546.79</v>
+        <v>31213.15</v>
       </c>
       <c r="G32" t="n">
-        <v>4546.98</v>
+        <v>31231.55</v>
       </c>
       <c r="H32" t="n">
-        <v>4553.61</v>
+        <v>31256.72</v>
       </c>
       <c r="I32" t="n">
-        <v>4558.31</v>
+        <v>31208.74</v>
       </c>
       <c r="J32" t="n">
-        <v>4553.65</v>
+        <v>31243.77</v>
       </c>
       <c r="K32" t="n">
-        <v>4554.73</v>
+        <v>31253.98</v>
       </c>
       <c r="L32" t="n">
-        <v>4557.14</v>
+        <v>31232.41</v>
       </c>
       <c r="M32" t="n">
-        <v>4556.82</v>
+        <v>31255.15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>31261.83</v>
+      </c>
+      <c r="O32" t="n">
+        <v>31195.37</v>
+      </c>
+      <c r="P32" t="n">
+        <v>31218.49</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>36200.37</v>
+      </c>
+      <c r="R32" t="n">
+        <v>36219.24</v>
+      </c>
+      <c r="S32" t="n">
+        <v>36190.07</v>
+      </c>
+      <c r="T32" t="n">
+        <v>36226.1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>36213.56</v>
+      </c>
+      <c r="V32" t="n">
+        <v>36205.45</v>
+      </c>
+      <c r="W32" t="n">
+        <v>36245.29</v>
+      </c>
+      <c r="X32" t="n">
+        <v>36181.39</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>36237.9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>28210.85</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>28246.78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138789.82</v>
+        <v>4556.82</v>
       </c>
       <c r="C33" t="n">
-        <v>133733.32</v>
+        <v>4553.38</v>
       </c>
       <c r="D33" t="n">
-        <v>128764.11</v>
+        <v>4521.17</v>
       </c>
       <c r="E33" t="n">
-        <v>123770.34</v>
+        <v>4551.65</v>
       </c>
       <c r="F33" t="n">
-        <v>118743.71</v>
+        <v>4551.52</v>
       </c>
       <c r="G33" t="n">
-        <v>125766.47</v>
+        <v>4550.67</v>
       </c>
       <c r="H33" t="n">
-        <v>128885.75</v>
+        <v>4558.79</v>
       </c>
       <c r="I33" t="n">
-        <v>118752.95</v>
+        <v>4548.71</v>
       </c>
       <c r="J33" t="n">
-        <v>113754.89</v>
+        <v>4553.91</v>
       </c>
       <c r="K33" t="n">
-        <v>108745.65</v>
+        <v>4550.09</v>
       </c>
       <c r="L33" t="n">
-        <v>102739.39</v>
+        <v>4550.96</v>
       </c>
       <c r="M33" t="n">
-        <v>102807.14</v>
+        <v>4547.79</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4562.65</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4547.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4548.41</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4549.02</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4552.27</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4544.43</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4546.77</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4557.16</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4548.15</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4544.49</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4547.04</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>4554.64</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>4548.93</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>4551.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>275283.19</v>
+        <v>102807.14</v>
       </c>
       <c r="C34" t="n">
-        <v>265073.7</v>
+        <v>98784.37</v>
       </c>
       <c r="D34" t="n">
-        <v>225396.48</v>
+        <v>98062.7</v>
       </c>
       <c r="E34" t="n">
-        <v>220224.98</v>
+        <v>98751.99000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>220368.55</v>
+        <v>98727.71000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>225203.37</v>
+        <v>93831.55</v>
       </c>
       <c r="H34" t="n">
-        <v>225086.5</v>
+        <v>88817.75</v>
       </c>
       <c r="I34" t="n">
-        <v>215352.48</v>
+        <v>96824.78999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>215432.52</v>
+        <v>96830.82000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>208122.04</v>
+        <v>96834.84</v>
       </c>
       <c r="L34" t="n">
-        <v>192818.77</v>
+        <v>101755.48</v>
       </c>
       <c r="M34" t="n">
-        <v>192911.9</v>
+        <v>101783.76</v>
+      </c>
+      <c r="N34" t="n">
+        <v>111744.41</v>
+      </c>
+      <c r="O34" t="n">
+        <v>121806.73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>124883.81</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>124724.95</v>
+      </c>
+      <c r="R34" t="n">
+        <v>124819.31</v>
+      </c>
+      <c r="S34" t="n">
+        <v>129760.05</v>
+      </c>
+      <c r="T34" t="n">
+        <v>129890.35</v>
+      </c>
+      <c r="U34" t="n">
+        <v>119833.97</v>
+      </c>
+      <c r="V34" t="n">
+        <v>124847.13</v>
+      </c>
+      <c r="W34" t="n">
+        <v>124827.96</v>
+      </c>
+      <c r="X34" t="n">
+        <v>144708.97</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>144759.25</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>139783.05</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>139733.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32436.65</v>
+        <v>192911.9</v>
       </c>
       <c r="C35" t="n">
-        <v>33943.21</v>
+        <v>192636.66</v>
       </c>
       <c r="D35" t="n">
-        <v>43659.5</v>
+        <v>191232.72</v>
       </c>
       <c r="E35" t="n">
-        <v>45674.62</v>
+        <v>192797.08</v>
       </c>
       <c r="F35" t="n">
-        <v>45256.54</v>
+        <v>192807.26</v>
       </c>
       <c r="G35" t="n">
-        <v>45285.52</v>
+        <v>200696.2</v>
       </c>
       <c r="H35" t="n">
-        <v>53728.33</v>
+        <v>200644.53</v>
       </c>
       <c r="I35" t="n">
-        <v>53769.44</v>
+        <v>209146.99</v>
       </c>
       <c r="J35" t="n">
-        <v>53791.1</v>
+        <v>209199.09</v>
       </c>
       <c r="K35" t="n">
-        <v>53750.74</v>
+        <v>209250.22</v>
       </c>
       <c r="L35" t="n">
-        <v>53428.12</v>
+        <v>204225.84</v>
       </c>
       <c r="M35" t="n">
-        <v>47035.15</v>
+        <v>194350.41</v>
+      </c>
+      <c r="N35" t="n">
+        <v>199107.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>199261.45</v>
+      </c>
+      <c r="P35" t="n">
+        <v>199100.46</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>199110.84</v>
+      </c>
+      <c r="R35" t="n">
+        <v>199149.48</v>
+      </c>
+      <c r="S35" t="n">
+        <v>199249.94</v>
+      </c>
+      <c r="T35" t="n">
+        <v>192184.96</v>
+      </c>
+      <c r="U35" t="n">
+        <v>187350.75</v>
+      </c>
+      <c r="V35" t="n">
+        <v>197261.09</v>
+      </c>
+      <c r="W35" t="n">
+        <v>192165.1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>192392.83</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>182449.16</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>162397.09</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>167334.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8103.05</v>
+        <v>47035.15</v>
       </c>
       <c r="C36" t="n">
-        <v>8104.65</v>
+        <v>47033.26</v>
       </c>
       <c r="D36" t="n">
-        <v>9325.459999999999</v>
+        <v>45413.28</v>
       </c>
       <c r="E36" t="n">
-        <v>9326.92</v>
+        <v>45302.22</v>
       </c>
       <c r="F36" t="n">
-        <v>9321.530000000001</v>
+        <v>46027.86</v>
       </c>
       <c r="G36" t="n">
-        <v>9321.879999999999</v>
+        <v>48886.03</v>
       </c>
       <c r="H36" t="n">
-        <v>9317.59</v>
+        <v>50320.6</v>
       </c>
       <c r="I36" t="n">
-        <v>9319.24</v>
+        <v>52059.08</v>
       </c>
       <c r="J36" t="n">
-        <v>9321.209999999999</v>
+        <v>52959.15</v>
       </c>
       <c r="K36" t="n">
-        <v>9327.35</v>
+        <v>55592.85</v>
       </c>
       <c r="L36" t="n">
-        <v>9317.48</v>
+        <v>55626.41</v>
       </c>
       <c r="M36" t="n">
-        <v>9326.950000000001</v>
+        <v>64709.41</v>
+      </c>
+      <c r="N36" t="n">
+        <v>64669.85</v>
+      </c>
+      <c r="O36" t="n">
+        <v>66305.87</v>
+      </c>
+      <c r="P36" t="n">
+        <v>67893.87</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>67831.17</v>
+      </c>
+      <c r="R36" t="n">
+        <v>67905.73</v>
+      </c>
+      <c r="S36" t="n">
+        <v>67948.39999999999</v>
+      </c>
+      <c r="T36" t="n">
+        <v>54336.63</v>
+      </c>
+      <c r="U36" t="n">
+        <v>82591</v>
+      </c>
+      <c r="V36" t="n">
+        <v>80833.78</v>
+      </c>
+      <c r="W36" t="n">
+        <v>79097.35000000001</v>
+      </c>
+      <c r="X36" t="n">
+        <v>82127.73</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>67988.53999999999</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>74448.72</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>74488.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21706.76</v>
+        <v>9326.950000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>21711.31</v>
+        <v>8469.41</v>
       </c>
       <c r="D37" t="n">
-        <v>21656.68</v>
+        <v>8410.68</v>
       </c>
       <c r="E37" t="n">
-        <v>24969.49</v>
+        <v>8471.17</v>
       </c>
       <c r="F37" t="n">
-        <v>25035.27</v>
+        <v>8462.690000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>29033.67</v>
+        <v>8470.559999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>28953.3</v>
+        <v>8467.07</v>
       </c>
       <c r="I37" t="n">
-        <v>33985.81</v>
+        <v>8468.870000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>37513.84</v>
+        <v>8466.450000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>34010.88</v>
+        <v>8470.6</v>
       </c>
       <c r="L37" t="n">
-        <v>32467.98</v>
+        <v>8466.780000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>32489.35</v>
+        <v>8468.17</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8464.950000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8471.16</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8468.959999999999</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>8466.870000000001</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8462.950000000001</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8464.24</v>
+      </c>
+      <c r="T37" t="n">
+        <v>8495.280000000001</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8467.26</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8465.76</v>
+      </c>
+      <c r="W37" t="n">
+        <v>8462.370000000001</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7993.35</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>7997.16</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8000.68</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8000.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23745.09</v>
+        <v>32489.35</v>
       </c>
       <c r="C38" t="n">
-        <v>23704.47</v>
+        <v>30514.68</v>
       </c>
       <c r="D38" t="n">
-        <v>23747.8</v>
+        <v>30295.91</v>
       </c>
       <c r="E38" t="n">
-        <v>40728.91</v>
+        <v>32541.56</v>
       </c>
       <c r="F38" t="n">
-        <v>40710.44</v>
+        <v>33464.33</v>
       </c>
       <c r="G38" t="n">
-        <v>40734.01</v>
+        <v>35745.62</v>
       </c>
       <c r="H38" t="n">
-        <v>40697</v>
+        <v>35729.22</v>
       </c>
       <c r="I38" t="n">
-        <v>40747.59</v>
+        <v>35665.18</v>
       </c>
       <c r="J38" t="n">
-        <v>40717.54</v>
+        <v>35724.88</v>
       </c>
       <c r="K38" t="n">
-        <v>40699.43</v>
+        <v>35727.42</v>
       </c>
       <c r="L38" t="n">
-        <v>40748.71</v>
+        <v>35657.59</v>
       </c>
       <c r="M38" t="n">
-        <v>40692.87</v>
+        <v>45494.2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>43966.54</v>
+      </c>
+      <c r="O38" t="n">
+        <v>45977.95</v>
+      </c>
+      <c r="P38" t="n">
+        <v>46053.56</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>45977.54</v>
+      </c>
+      <c r="R38" t="n">
+        <v>46004.03</v>
+      </c>
+      <c r="S38" t="n">
+        <v>48062.37</v>
+      </c>
+      <c r="T38" t="n">
+        <v>48048.45</v>
+      </c>
+      <c r="U38" t="n">
+        <v>45299.96</v>
+      </c>
+      <c r="V38" t="n">
+        <v>47366.1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>47440.83</v>
+      </c>
+      <c r="X38" t="n">
+        <v>47496.53</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>49955.91</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>46432.74</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>45944.48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30176.82</v>
+        <v>40692.87</v>
       </c>
       <c r="C39" t="n">
-        <v>30163.52</v>
+        <v>40717.52</v>
       </c>
       <c r="D39" t="n">
-        <v>21802.78</v>
+        <v>40405.87</v>
       </c>
       <c r="E39" t="n">
-        <v>24993.69</v>
+        <v>40749.26</v>
       </c>
       <c r="F39" t="n">
-        <v>24997.19</v>
+        <v>40750.41</v>
       </c>
       <c r="G39" t="n">
-        <v>24968.27</v>
+        <v>40688.48</v>
       </c>
       <c r="H39" t="n">
-        <v>25002.29</v>
+        <v>40711.02</v>
       </c>
       <c r="I39" t="n">
-        <v>24973.08</v>
+        <v>40700.18</v>
       </c>
       <c r="J39" t="n">
-        <v>24996.93</v>
+        <v>40728.55</v>
       </c>
       <c r="K39" t="n">
-        <v>24974</v>
+        <v>40721.78</v>
       </c>
       <c r="L39" t="n">
-        <v>24972.35</v>
+        <v>40723.74</v>
       </c>
       <c r="M39" t="n">
-        <v>24969.62</v>
+        <v>40727.9</v>
+      </c>
+      <c r="N39" t="n">
+        <v>40688.21</v>
+      </c>
+      <c r="O39" t="n">
+        <v>40699.38</v>
+      </c>
+      <c r="P39" t="n">
+        <v>35698.17</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37729.64</v>
+      </c>
+      <c r="R39" t="n">
+        <v>37757.31</v>
+      </c>
+      <c r="S39" t="n">
+        <v>37744.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>37744.34</v>
+      </c>
+      <c r="U39" t="n">
+        <v>37698.47</v>
+      </c>
+      <c r="V39" t="n">
+        <v>37715.87</v>
+      </c>
+      <c r="W39" t="n">
+        <v>37683.14</v>
+      </c>
+      <c r="X39" t="n">
+        <v>37677.01</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>37759.83</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>37748.03</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>37695.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61581.46</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>24969.62</v>
+      </c>
+      <c r="C40" t="n">
+        <v>24989.24</v>
+      </c>
       <c r="D40" t="n">
-        <v>61608.13</v>
+        <v>24793.82</v>
       </c>
       <c r="E40" t="n">
-        <v>61591.51</v>
+        <v>31773.87</v>
       </c>
       <c r="F40" t="n">
-        <v>61586.06</v>
+        <v>31799.97</v>
       </c>
       <c r="G40" t="n">
-        <v>69618.32000000001</v>
+        <v>34891.13</v>
       </c>
       <c r="H40" t="n">
-        <v>69529.59</v>
+        <v>34887.22</v>
       </c>
       <c r="I40" t="n">
-        <v>69607.89</v>
+        <v>34905.71</v>
       </c>
       <c r="J40" t="n">
-        <v>69551.28999999999</v>
+        <v>34886.91</v>
       </c>
       <c r="K40" t="n">
-        <v>69491.53</v>
+        <v>34906.7</v>
       </c>
       <c r="L40" t="n">
-        <v>69660.37</v>
+        <v>34899.02</v>
       </c>
       <c r="M40" t="n">
-        <v>69618.17</v>
+        <v>34897.56</v>
+      </c>
+      <c r="N40" t="n">
+        <v>34996.43</v>
+      </c>
+      <c r="O40" t="n">
+        <v>34953.72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>34955.07</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>34990.84</v>
+      </c>
+      <c r="R40" t="n">
+        <v>35003.7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>34970.57</v>
+      </c>
+      <c r="T40" t="n">
+        <v>31751.7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>31773.71</v>
+      </c>
+      <c r="V40" t="n">
+        <v>34626.82</v>
+      </c>
+      <c r="W40" t="n">
+        <v>47767.99</v>
+      </c>
+      <c r="X40" t="n">
+        <v>47777.55</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>47769.43</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>51548.88</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>51534.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132762.87</v>
+        <v>69618.17</v>
       </c>
       <c r="C41" t="n">
-        <v>132740.58</v>
+        <v>69487.23</v>
       </c>
       <c r="D41" t="n">
-        <v>132695.81</v>
+        <v>69055.14999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>132957.68</v>
+        <v>69532.28</v>
       </c>
       <c r="F41" t="n">
-        <v>132938.59</v>
+        <v>69604.86</v>
       </c>
       <c r="G41" t="n">
-        <v>132915.02</v>
+        <v>69530.06</v>
       </c>
       <c r="H41" t="n">
-        <v>132804</v>
+        <v>69543.62</v>
       </c>
       <c r="I41" t="n">
-        <v>132756.39</v>
+        <v>69615.67</v>
       </c>
       <c r="J41" t="n">
-        <v>132873.62</v>
+        <v>69484.13</v>
       </c>
       <c r="K41" t="n">
-        <v>132665.54</v>
+        <v>69543.19</v>
       </c>
       <c r="L41" t="n">
-        <v>119553.86</v>
+        <v>69491.75999999999</v>
       </c>
       <c r="M41" t="n">
-        <v>119396.72</v>
+        <v>69535.53999999999</v>
+      </c>
+      <c r="N41" t="n">
+        <v>69589.38</v>
+      </c>
+      <c r="O41" t="n">
+        <v>69533.59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>97914.74000000001</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>97865.89</v>
+      </c>
+      <c r="R41" t="n">
+        <v>98055.03999999999</v>
+      </c>
+      <c r="S41" t="n">
+        <v>98021.84</v>
+      </c>
+      <c r="T41" t="n">
+        <v>97872.71000000001</v>
+      </c>
+      <c r="U41" t="n">
+        <v>97927.23</v>
+      </c>
+      <c r="V41" t="n">
+        <v>97953.75</v>
+      </c>
+      <c r="W41" t="n">
+        <v>98051.75999999999</v>
+      </c>
+      <c r="X41" t="n">
+        <v>103924.08</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>103797.32</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>103897.4</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>103872.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34754.06</v>
+        <v>119396.72</v>
       </c>
       <c r="C42" t="n">
-        <v>34785.32</v>
+        <v>119329.01</v>
       </c>
       <c r="D42" t="n">
-        <v>34697.72</v>
+        <v>118507.75</v>
       </c>
       <c r="E42" t="n">
-        <v>34737.25</v>
+        <v>119564.62</v>
       </c>
       <c r="F42" t="n">
-        <v>34786.72</v>
+        <v>119453.19</v>
       </c>
       <c r="G42" t="n">
-        <v>34726.67</v>
+        <v>119470.09</v>
       </c>
       <c r="H42" t="n">
-        <v>44796.8</v>
+        <v>119569.78</v>
       </c>
       <c r="I42" t="n">
-        <v>44784.97</v>
+        <v>168732.25</v>
       </c>
       <c r="J42" t="n">
-        <v>44782.36</v>
+        <v>168912.42</v>
       </c>
       <c r="K42" t="n">
-        <v>42003.29</v>
+        <v>168610.26</v>
       </c>
       <c r="L42" t="n">
-        <v>46070.29</v>
+        <v>168888.09</v>
       </c>
       <c r="M42" t="n">
-        <v>46067.63</v>
+        <v>168945.68</v>
+      </c>
+      <c r="N42" t="n">
+        <v>168728.99</v>
+      </c>
+      <c r="O42" t="n">
+        <v>211217.99</v>
+      </c>
+      <c r="P42" t="n">
+        <v>281776.63</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>282074.39</v>
+      </c>
+      <c r="R42" t="n">
+        <v>281745.72</v>
+      </c>
+      <c r="S42" t="n">
+        <v>282099.99</v>
+      </c>
+      <c r="T42" t="n">
+        <v>282828.31</v>
+      </c>
+      <c r="U42" t="n">
+        <v>282163.55</v>
+      </c>
+      <c r="V42" t="n">
+        <v>282029.28</v>
+      </c>
+      <c r="W42" t="n">
+        <v>281765.66</v>
+      </c>
+      <c r="X42" t="n">
+        <v>281795.3</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>235495.55</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>235562.16</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>235412.89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96329.37</v>
+        <v>46067.63</v>
       </c>
       <c r="C43" t="n">
-        <v>96227.52</v>
+        <v>54055.89</v>
       </c>
       <c r="D43" t="n">
-        <v>96150.28</v>
+        <v>53614.41</v>
       </c>
       <c r="E43" t="n">
-        <v>96327.45</v>
+        <v>54020.06</v>
       </c>
       <c r="F43" t="n">
-        <v>96174.06</v>
+        <v>54032.28</v>
       </c>
       <c r="G43" t="n">
-        <v>96284.45</v>
+        <v>62103.49</v>
       </c>
       <c r="H43" t="n">
-        <v>96267.00999999999</v>
+        <v>64057.07</v>
       </c>
       <c r="I43" t="n">
-        <v>96198.17</v>
+        <v>60990.83</v>
       </c>
       <c r="J43" t="n">
-        <v>96306.71000000001</v>
+        <v>61036.68</v>
       </c>
       <c r="K43" t="n">
-        <v>96194.56</v>
+        <v>62595.85</v>
       </c>
       <c r="L43" t="n">
-        <v>96177.67999999999</v>
+        <v>64977.93</v>
       </c>
       <c r="M43" t="n">
-        <v>96341.89999999999</v>
+        <v>70036.91</v>
+      </c>
+      <c r="N43" t="n">
+        <v>72968.47</v>
+      </c>
+      <c r="O43" t="n">
+        <v>76086.67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>69106.09</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>86519.94</v>
+      </c>
+      <c r="R43" t="n">
+        <v>86551.41</v>
+      </c>
+      <c r="S43" t="n">
+        <v>86635.49000000001</v>
+      </c>
+      <c r="T43" t="n">
+        <v>86761.71000000001</v>
+      </c>
+      <c r="U43" t="n">
+        <v>93451.11</v>
+      </c>
+      <c r="V43" t="n">
+        <v>93599.97</v>
+      </c>
+      <c r="W43" t="n">
+        <v>96615.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>102438.47</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>93607.94</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>83596.89999999999</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>83610.73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>66545.2</v>
+        <v>96341.89999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>66517.99000000001</v>
+        <v>96331.58</v>
       </c>
       <c r="D44" t="n">
-        <v>62656.78</v>
+        <v>95512.12</v>
       </c>
       <c r="E44" t="n">
-        <v>61509.05</v>
+        <v>119871.03</v>
       </c>
       <c r="F44" t="n">
-        <v>66320.41</v>
+        <v>119747.91</v>
       </c>
       <c r="G44" t="n">
-        <v>67068.96000000001</v>
+        <v>130851.41</v>
       </c>
       <c r="H44" t="n">
-        <v>67245.98</v>
+        <v>130654.23</v>
       </c>
       <c r="I44" t="n">
-        <v>67250.89</v>
+        <v>130836.91</v>
       </c>
       <c r="J44" t="n">
-        <v>67246.27</v>
+        <v>130840.08</v>
       </c>
       <c r="K44" t="n">
-        <v>67197.84</v>
+        <v>130706.51</v>
       </c>
       <c r="L44" t="n">
-        <v>67248.10000000001</v>
+        <v>130684.34</v>
       </c>
       <c r="M44" t="n">
-        <v>65355.48</v>
+        <v>130825.49</v>
+      </c>
+      <c r="N44" t="n">
+        <v>131330.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>115210.81</v>
+      </c>
+      <c r="P44" t="n">
+        <v>106596.17</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>106753.71</v>
+      </c>
+      <c r="R44" t="n">
+        <v>106690.49</v>
+      </c>
+      <c r="S44" t="n">
+        <v>106575.24</v>
+      </c>
+      <c r="T44" t="n">
+        <v>96926.86</v>
+      </c>
+      <c r="U44" t="n">
+        <v>96947.14999999999</v>
+      </c>
+      <c r="V44" t="n">
+        <v>101406.57</v>
+      </c>
+      <c r="W44" t="n">
+        <v>119083</v>
+      </c>
+      <c r="X44" t="n">
+        <v>119207.1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>119155.49</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>142432.42</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>142441.76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>548193.05</v>
+        <v>65355.48</v>
       </c>
       <c r="C45" t="n">
-        <v>560367.16</v>
+        <v>61921.64</v>
       </c>
       <c r="D45" t="n">
-        <v>572931.5699999999</v>
+        <v>61468.63</v>
       </c>
       <c r="E45" t="n">
-        <v>621141.78</v>
+        <v>62566.8</v>
       </c>
       <c r="F45" t="n">
-        <v>620842.34</v>
+        <v>61817.56</v>
       </c>
       <c r="G45" t="n">
-        <v>620921.27</v>
+        <v>67279.08</v>
       </c>
       <c r="H45" t="n">
-        <v>606678.62</v>
+        <v>67253.05</v>
       </c>
       <c r="I45" t="n">
-        <v>606566.2</v>
+        <v>67179.12</v>
       </c>
       <c r="J45" t="n">
-        <v>607039.34</v>
+        <v>67253.73</v>
       </c>
       <c r="K45" t="n">
-        <v>606653.52</v>
+        <v>67207.02</v>
       </c>
       <c r="L45" t="n">
-        <v>588815.9399999999</v>
+        <v>66188.02</v>
       </c>
       <c r="M45" t="n">
-        <v>588739.62</v>
+        <v>61046.74</v>
+      </c>
+      <c r="N45" t="n">
+        <v>59722.55</v>
+      </c>
+      <c r="O45" t="n">
+        <v>60484.17</v>
+      </c>
+      <c r="P45" t="n">
+        <v>67257.24000000001</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>99634.23</v>
+      </c>
+      <c r="R45" t="n">
+        <v>99621.24000000001</v>
+      </c>
+      <c r="S45" t="n">
+        <v>99605.53</v>
+      </c>
+      <c r="T45" t="n">
+        <v>109388.93</v>
+      </c>
+      <c r="U45" t="n">
+        <v>109096.38</v>
+      </c>
+      <c r="V45" t="n">
+        <v>107650.47</v>
+      </c>
+      <c r="W45" t="n">
+        <v>107551.1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>121895.05</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>121779.21</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>121901.68</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>121746.38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1317408.94</v>
+        <v>588739.62</v>
       </c>
       <c r="C46" t="n">
-        <v>1317359.35</v>
+        <v>589151.98</v>
       </c>
       <c r="D46" t="n">
-        <v>1317336.23</v>
+        <v>584616.77</v>
       </c>
       <c r="E46" t="n">
-        <v>1317734.58</v>
+        <v>633052.65</v>
       </c>
       <c r="F46" t="n">
-        <v>1317579.31</v>
+        <v>656535.58</v>
       </c>
       <c r="G46" t="n">
-        <v>1308596.16</v>
+        <v>656378.36</v>
       </c>
       <c r="H46" t="n">
-        <v>1294205.99</v>
+        <v>656527.38</v>
       </c>
       <c r="I46" t="n">
-        <v>1277205.13</v>
+        <v>656489.83</v>
       </c>
       <c r="J46" t="n">
-        <v>1263861.86</v>
+        <v>680495.9300000001</v>
       </c>
       <c r="K46" t="n">
-        <v>1263367.97</v>
+        <v>680629.72</v>
       </c>
       <c r="L46" t="n">
-        <v>1264019.31</v>
+        <v>680300.26</v>
       </c>
       <c r="M46" t="n">
-        <v>1263393.9</v>
+        <v>723031.4300000001</v>
+      </c>
+      <c r="N46" t="n">
+        <v>722795.5699999999</v>
+      </c>
+      <c r="O46" t="n">
+        <v>723327.52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>638209.45</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>662377.35</v>
+      </c>
+      <c r="R46" t="n">
+        <v>662303.79</v>
+      </c>
+      <c r="S46" t="n">
+        <v>662683.6899999999</v>
+      </c>
+      <c r="T46" t="n">
+        <v>609717.09</v>
+      </c>
+      <c r="U46" t="n">
+        <v>609762.74</v>
+      </c>
+      <c r="V46" t="n">
+        <v>609395.27</v>
+      </c>
+      <c r="W46" t="n">
+        <v>609408.97</v>
+      </c>
+      <c r="X46" t="n">
+        <v>599590.3</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>573569.91</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>571902.52</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>571812.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>715172.0600000001</v>
+        <v>1263393.9</v>
       </c>
       <c r="C47" t="n">
-        <v>716517.87</v>
+        <v>1263234.84</v>
       </c>
       <c r="D47" t="n">
-        <v>767218.66</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+        <v>1254889.24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1263881.04</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1263327.82</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1263780.82</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1263441.77</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1263568.94</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1263691.88</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1263729.52</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1263953.18</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1263587.46</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1263945.82</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1263495.47</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1256220.85</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1236141.38</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1241364.33</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1226100.48</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1166069.83</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1157552.53</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1158648.32</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1158526.8</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1158523.85</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1159159.18</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1158929.22</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1159240.72</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2434,169 +4422,392 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>54956.5</v>
+        <v>55427.65</v>
       </c>
       <c r="C48" t="n">
-        <v>55248.68</v>
+        <v>55480.38</v>
       </c>
       <c r="D48" t="n">
-        <v>55593.54</v>
+        <v>55085.2</v>
       </c>
       <c r="E48" t="n">
-        <v>54306.86</v>
+        <v>54993.48</v>
       </c>
       <c r="F48" t="n">
-        <v>55410.8</v>
+        <v>97808.13</v>
       </c>
       <c r="G48" t="n">
-        <v>54823.01</v>
+        <v>97701.39999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>55166.05</v>
+        <v>98384.44</v>
       </c>
       <c r="I48" t="n">
-        <v>55083.68</v>
+        <v>98028.99000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>54949.44</v>
+        <v>98296.13</v>
       </c>
       <c r="K48" t="n">
-        <v>55298.79</v>
+        <v>97844.71000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>54930.92</v>
+        <v>97275.50999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>55427.65</v>
+        <v>97417.16</v>
+      </c>
+      <c r="N48" t="n">
+        <v>97151.38</v>
+      </c>
+      <c r="O48" t="n">
+        <v>155549.42</v>
+      </c>
+      <c r="P48" t="n">
+        <v>154220.46</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>366534.72</v>
+      </c>
+      <c r="R48" t="n">
+        <v>435042.94</v>
+      </c>
+      <c r="S48" t="n">
+        <v>435249.92</v>
+      </c>
+      <c r="T48" t="n">
+        <v>434082.76</v>
+      </c>
+      <c r="U48" t="n">
+        <v>503820.43</v>
+      </c>
+      <c r="V48" t="n">
+        <v>660233.62</v>
+      </c>
+      <c r="W48" t="n">
+        <v>812765.92</v>
+      </c>
+      <c r="X48" t="n">
+        <v>960525.8</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>962109.9300000001</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1075059.93</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1132993.67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>41918.65</v>
-      </c>
-      <c r="C49" t="n">
-        <v>38263.48</v>
-      </c>
-      <c r="D49" t="n">
-        <v>38306.38</v>
-      </c>
-      <c r="E49" t="n">
-        <v>38250.19</v>
-      </c>
-      <c r="F49" t="n">
-        <v>38232.18</v>
-      </c>
-      <c r="G49" t="n">
-        <v>38246.93</v>
-      </c>
-      <c r="H49" t="n">
-        <v>38290.23</v>
-      </c>
-      <c r="I49" t="n">
-        <v>38255.53</v>
-      </c>
-      <c r="J49" t="n">
-        <v>38297.76</v>
-      </c>
-      <c r="K49" t="n">
-        <v>38298.8</v>
-      </c>
-      <c r="L49" t="n">
-        <v>38295.29</v>
-      </c>
-      <c r="M49" t="n">
-        <v>38294.21</v>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>35730.65</v>
+      </c>
+      <c r="R49" t="n">
+        <v>35451.74</v>
+      </c>
+      <c r="S49" t="n">
+        <v>35143.69</v>
+      </c>
+      <c r="T49" t="n">
+        <v>35617.37</v>
+      </c>
+      <c r="U49" t="n">
+        <v>35127.19</v>
+      </c>
+      <c r="V49" t="n">
+        <v>35305.43</v>
+      </c>
+      <c r="W49" t="n">
+        <v>60591.57</v>
+      </c>
+      <c r="X49" t="n">
+        <v>60391.06</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>60471.51</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>60349.68</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>60467.05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>240887.66</v>
+        <v>38294.21</v>
       </c>
       <c r="C50" t="n">
-        <v>247212.54</v>
+        <v>38287.52</v>
       </c>
       <c r="D50" t="n">
-        <v>238458.54</v>
+        <v>38016.09</v>
       </c>
       <c r="E50" t="n">
-        <v>227051.01</v>
+        <v>38296.91</v>
       </c>
       <c r="F50" t="n">
-        <v>230234.09</v>
+        <v>38283.08</v>
       </c>
       <c r="G50" t="n">
-        <v>229243.96</v>
+        <v>42323.51</v>
       </c>
       <c r="H50" t="n">
-        <v>229641.74</v>
+        <v>42312.69</v>
       </c>
       <c r="I50" t="n">
-        <v>227902.42</v>
+        <v>42284.38</v>
       </c>
       <c r="J50" t="n">
-        <v>228546.96</v>
+        <v>46500.88</v>
       </c>
       <c r="K50" t="n">
-        <v>228456.15</v>
+        <v>46522.9</v>
       </c>
       <c r="L50" t="n">
-        <v>226431.99</v>
+        <v>51390.27</v>
       </c>
       <c r="M50" t="n">
-        <v>224421.82</v>
+        <v>51425.64</v>
+      </c>
+      <c r="N50" t="n">
+        <v>51423.06</v>
+      </c>
+      <c r="O50" t="n">
+        <v>51447.53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>51386</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>56419.82</v>
+      </c>
+      <c r="R50" t="n">
+        <v>56405.82</v>
+      </c>
+      <c r="S50" t="n">
+        <v>56340.7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>56543.77</v>
+      </c>
+      <c r="U50" t="n">
+        <v>56355.62</v>
+      </c>
+      <c r="V50" t="n">
+        <v>56335.06</v>
+      </c>
+      <c r="W50" t="n">
+        <v>56353.61</v>
+      </c>
+      <c r="X50" t="n">
+        <v>56332.06</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>56417.16</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>47302.41</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>47379.12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>224421.82</v>
+      </c>
+      <c r="C51" t="n">
+        <v>222965.11</v>
+      </c>
+      <c r="D51" t="n">
+        <v>221126.76</v>
+      </c>
+      <c r="E51" t="n">
+        <v>222945.73</v>
+      </c>
+      <c r="F51" t="n">
+        <v>220543.13</v>
+      </c>
+      <c r="G51" t="n">
+        <v>222903.41</v>
+      </c>
+      <c r="H51" t="n">
+        <v>222336.69</v>
+      </c>
+      <c r="I51" t="n">
+        <v>224378.78</v>
+      </c>
+      <c r="J51" t="n">
+        <v>228764.12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>230303.86</v>
+      </c>
+      <c r="L51" t="n">
+        <v>231068.27</v>
+      </c>
+      <c r="M51" t="n">
+        <v>235214.57</v>
+      </c>
+      <c r="N51" t="n">
+        <v>240689.08</v>
+      </c>
+      <c r="O51" t="n">
+        <v>243649.02</v>
+      </c>
+      <c r="P51" t="n">
+        <v>244375.34</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>245540.87</v>
+      </c>
+      <c r="R51" t="n">
+        <v>248415.93</v>
+      </c>
+      <c r="S51" t="n">
+        <v>249581.8</v>
+      </c>
+      <c r="T51" t="n">
+        <v>248184.26</v>
+      </c>
+      <c r="U51" t="n">
+        <v>247527.09</v>
+      </c>
+      <c r="V51" t="n">
+        <v>252488.96</v>
+      </c>
+      <c r="W51" t="n">
+        <v>259576.65</v>
+      </c>
+      <c r="X51" t="n">
+        <v>266107.11</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>261975.84</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>257747</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>258795.16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>11321720.08</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8899651.43</v>
-      </c>
-      <c r="D51" t="n">
-        <v>11207551.3</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10671397.33</v>
-      </c>
-      <c r="F51" t="n">
-        <v>10821002.22</v>
-      </c>
-      <c r="G51" t="n">
-        <v>10774466.19</v>
-      </c>
-      <c r="H51" t="n">
-        <v>10793161.88</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10711413.64</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10741707.24</v>
-      </c>
-      <c r="K51" t="n">
-        <v>10737439.21</v>
-      </c>
-      <c r="L51" t="n">
-        <v>10642303.61</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="B52" t="n">
         <v>10547825.34</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10479360.14</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10392957.61</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10478449.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10365527.22</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10476460.13</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10449824.22</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10545802.58</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10751913.69</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10593977.72</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10629140.26</v>
+      </c>
+      <c r="M52" t="n">
+        <v>10819870.06</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11071697.86</v>
+      </c>
+      <c r="O52" t="n">
+        <v>11207854.86</v>
+      </c>
+      <c r="P52" t="n">
+        <v>11241265.65</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>11785961.99</v>
+      </c>
+      <c r="R52" t="n">
+        <v>11923964.84</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11979926.59</v>
+      </c>
+      <c r="T52" t="n">
+        <v>11912844.55</v>
+      </c>
+      <c r="U52" t="n">
+        <v>11881300.26</v>
+      </c>
+      <c r="V52" t="n">
+        <v>12119469.92</v>
+      </c>
+      <c r="W52" t="n">
+        <v>12459679.2</v>
+      </c>
+      <c r="X52" t="n">
+        <v>12773141.38</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>12574840.14</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>12629602.83</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12680962.68</v>
       </c>
     </row>
   </sheetData>
